--- a/database/orang/aulia/exel_boomber_aulia/F0 Aulia Database Notel.xlsx
+++ b/database/orang/aulia/exel_boomber_aulia/F0 Aulia Database Notel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.UCUPd\Yabuki\Database\Riri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\orang\aulia\exel_boomber_aulia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4534ED4-E82D-B94A-A977-AD3C349D039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B9A413-05A2-4125-BEDB-6860183D74AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="2820" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Keterangan</t>
   </si>
@@ -56,111 +56,6 @@
   </si>
   <si>
     <t>Asal Daerah</t>
-  </si>
-  <si>
-    <t>Ibu endang</t>
-  </si>
-  <si>
-    <t>Bapak wahyu</t>
-  </si>
-  <si>
-    <t>Sahabat yatim</t>
-  </si>
-  <si>
-    <t>+62 853-2755-7516</t>
-  </si>
-  <si>
-    <t>+62 853-2755-7923</t>
-  </si>
-  <si>
-    <t>+62 853-2755-7999</t>
-  </si>
-  <si>
-    <t>Ibu nur</t>
-  </si>
-  <si>
-    <t>Ibu rusmini</t>
-  </si>
-  <si>
-    <t>+62 853-2756-0788</t>
-  </si>
-  <si>
-    <t>+62 853-2735-2281</t>
-  </si>
-  <si>
-    <t>+62 853-2756-0686</t>
-  </si>
-  <si>
-    <t>+62 853-2756-0844</t>
-  </si>
-  <si>
-    <t>Mas joko</t>
-  </si>
-  <si>
-    <t>Ibu supatmi</t>
-  </si>
-  <si>
-    <t>Mas fajar</t>
-  </si>
-  <si>
-    <t>Mba ely</t>
-  </si>
-  <si>
-    <t>+62 853-2755-8977</t>
-  </si>
-  <si>
-    <t>+62 853-2756-2187</t>
-  </si>
-  <si>
-    <t>+62 853-2756-1598</t>
-  </si>
-  <si>
-    <t>+62 853-2734-1435</t>
-  </si>
-  <si>
-    <t>+62 853-2755-9941</t>
-  </si>
-  <si>
-    <t>Ibu ria</t>
-  </si>
-  <si>
-    <t>Bapak nasrudin</t>
-  </si>
-  <si>
-    <t>Mas agung</t>
-  </si>
-  <si>
-    <t>Bapak erdi</t>
-  </si>
-  <si>
-    <t>Bapak adi</t>
-  </si>
-  <si>
-    <t>+62 853-2756-0018</t>
-  </si>
-  <si>
-    <t>+62 853-2755-9383</t>
-  </si>
-  <si>
-    <t>+62 853-2755-9543</t>
-  </si>
-  <si>
-    <t>+62 853-2755-9470</t>
-  </si>
-  <si>
-    <t>+62 853-2755-9880</t>
-  </si>
-  <si>
-    <t>+62 853-2756-1462</t>
-  </si>
-  <si>
-    <t>+62 812-4523-3223</t>
-  </si>
-  <si>
-    <t>+62 853-2756-0032</t>
-  </si>
-  <si>
-    <t>+62 853-2734-4407</t>
   </si>
 </sst>
 </file>
@@ -504,19 +399,19 @@
   <dimension ref="A1:G1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.14453125" customWidth="1"/>
-    <col min="3" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="29.66796875" customWidth="1"/>
-    <col min="6" max="6" width="18.47265625" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" customWidth="1"/>
+    <col min="1" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -539,354 +434,228 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>44662</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>44662</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>44662</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>44663</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>44663</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>44663</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
-        <v>44663</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>44664</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
-        <v>44664</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>44664</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
-        <v>44664</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>44664</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
-        <v>44665</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>44665</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
-        <v>44665</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>44665</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
-        <v>44665</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
-        <v>44665</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
-        <v>44665</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
-        <v>44665</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
-        <v>44667</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -896,7 +665,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -907,7 +676,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -917,7 +686,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -928,7 +697,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -938,7 +707,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -949,7 +718,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -959,7 +728,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -970,7 +739,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -980,7 +749,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -991,7 +760,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1001,7 +770,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -1012,7 +781,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1022,7 +791,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -1033,7 +802,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1043,7 +812,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -1054,7 +823,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1064,7 +833,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -1075,7 +844,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1085,7 +854,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -1096,7 +865,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1106,7 +875,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -1117,7 +886,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1127,7 +896,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -1138,7 +907,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1148,7 +917,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -1159,7 +928,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1169,7 +938,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -1180,7 +949,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1189,7 +958,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -1200,7 +969,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1209,7 +978,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -1220,7 +989,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1229,7 +998,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -1240,7 +1009,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1249,7 +1018,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -1260,7 +1029,7 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1269,7 +1038,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -1280,7 +1049,7 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1289,7 +1058,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -1300,7 +1069,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1309,7 +1078,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -1320,7 +1089,7 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1329,7 +1098,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -1340,7 +1109,7 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -1349,7 +1118,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -1360,7 +1129,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1369,7 +1138,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -1380,7 +1149,7 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -1389,7 +1158,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -1400,7 +1169,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -1409,7 +1178,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -1420,7 +1189,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -1429,7 +1198,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -1440,7 +1209,7 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -1449,7 +1218,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -1460,7 +1229,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -1469,7 +1238,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -1480,7 +1249,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1489,7 +1258,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -1500,7 +1269,7 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1509,7 +1278,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -1520,7 +1289,7 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -1529,7 +1298,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -1540,7 +1309,7 @@
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -1549,7 +1318,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -1560,7 +1329,7 @@
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -1569,7 +1338,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -1580,7 +1349,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -1589,7 +1358,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -1600,7 +1369,7 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -1609,7 +1378,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -1620,7 +1389,7 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -1629,7 +1398,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -1640,7 +1409,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -1649,7 +1418,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -1660,7 +1429,7 @@
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -1669,7 +1438,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -1680,7 +1449,7 @@
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -1689,7 +1458,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -1700,7 +1469,7 @@
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -1709,7 +1478,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -1720,7 +1489,7 @@
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -1729,7 +1498,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -1740,7 +1509,7 @@
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -1749,7 +1518,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -1760,7 +1529,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -1769,7 +1538,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -1780,7 +1549,7 @@
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -1789,7 +1558,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -1800,7 +1569,7 @@
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -1809,7 +1578,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -1820,7 +1589,7 @@
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -1829,7 +1598,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -1840,7 +1609,7 @@
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -1849,7 +1618,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -1860,7 +1629,7 @@
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -1869,7 +1638,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -1880,7 +1649,7 @@
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -1889,7 +1658,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -1900,7 +1669,7 @@
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -1909,7 +1678,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -1920,7 +1689,7 @@
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -1929,7 +1698,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -1940,7 +1709,7 @@
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -1949,7 +1718,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -1960,7 +1729,7 @@
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -1969,7 +1738,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -1980,7 +1749,7 @@
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -1989,7 +1758,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -2000,7 +1769,7 @@
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -2009,7 +1778,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -2020,7 +1789,7 @@
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -2029,7 +1798,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -2040,7 +1809,7 @@
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -2049,7 +1818,7 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -2060,7 +1829,7 @@
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -2069,7 +1838,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -2080,7 +1849,7 @@
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -2089,7 +1858,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -2100,7 +1869,7 @@
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -2109,7 +1878,7 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -2120,7 +1889,7 @@
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -2129,7 +1898,7 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -2140,7 +1909,7 @@
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -2149,7 +1918,7 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -2160,7 +1929,7 @@
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -2169,7 +1938,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -2180,7 +1949,7 @@
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -2189,7 +1958,7 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -2200,7 +1969,7 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -2209,7 +1978,7 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -2220,7 +1989,7 @@
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -2229,7 +1998,7 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -2240,7 +2009,7 @@
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -2249,7 +2018,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -2260,7 +2029,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -2269,7 +2038,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -2280,7 +2049,7 @@
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -2289,7 +2058,7 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -2300,7 +2069,7 @@
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -2309,7 +2078,7 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -2320,7 +2089,7 @@
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -2329,7 +2098,7 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -2340,7 +2109,7 @@
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -2349,7 +2118,7 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -2360,7 +2129,7 @@
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -2369,7 +2138,7 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -2380,7 +2149,7 @@
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -2389,7 +2158,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -2400,7 +2169,7 @@
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -2409,7 +2178,7 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -2420,7 +2189,7 @@
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -2429,7 +2198,7 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -2440,7 +2209,7 @@
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -2449,7 +2218,7 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -2460,7 +2229,7 @@
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -2469,7 +2238,7 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -2480,7 +2249,7 @@
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -2489,7 +2258,7 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -2500,7 +2269,7 @@
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -2509,7 +2278,7 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -2520,7 +2289,7 @@
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -2529,7 +2298,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -2540,7 +2309,7 @@
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -2549,7 +2318,7 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -2560,7 +2329,7 @@
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -2569,7 +2338,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -2580,7 +2349,7 @@
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -2589,7 +2358,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -2600,7 +2369,7 @@
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -2609,7 +2378,7 @@
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -2620,7 +2389,7 @@
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -2629,7 +2398,7 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -2640,7 +2409,7 @@
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -2649,7 +2418,7 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -2660,7 +2429,7 @@
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -2669,7 +2438,7 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -2680,7 +2449,7 @@
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -2689,7 +2458,7 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -2700,7 +2469,7 @@
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -2709,7 +2478,7 @@
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -2720,7 +2489,7 @@
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -2729,7 +2498,7 @@
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -2740,7 +2509,7 @@
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -2749,7 +2518,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -2760,7 +2529,7 @@
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -2769,7 +2538,7 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -2780,7 +2549,7 @@
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -2789,7 +2558,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>211</v>
       </c>
@@ -2800,7 +2569,7 @@
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -2810,7 +2579,7 @@
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -2821,7 +2590,7 @@
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -2831,7 +2600,7 @@
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -2842,7 +2611,7 @@
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -2852,7 +2621,7 @@
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -2863,7 +2632,7 @@
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -2873,7 +2642,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -2884,7 +2653,7 @@
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -2894,7 +2663,7 @@
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -2905,7 +2674,7 @@
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -2915,7 +2684,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -2926,7 +2695,7 @@
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -2936,7 +2705,7 @@
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -2947,7 +2716,7 @@
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
     </row>
-    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -2957,7 +2726,7 @@
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -2968,7 +2737,7 @@
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
     </row>
-    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -2978,7 +2747,7 @@
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -2989,7 +2758,7 @@
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
     </row>
-    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -2999,7 +2768,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>231</v>
       </c>
@@ -3010,7 +2779,7 @@
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -3020,7 +2789,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -3031,7 +2800,7 @@
       <c r="F234" s="11"/>
       <c r="G234" s="11"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -3041,7 +2810,7 @@
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -3052,7 +2821,7 @@
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -3062,7 +2831,7 @@
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -3073,7 +2842,7 @@
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -3083,7 +2852,7 @@
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -3094,7 +2863,7 @@
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -3104,7 +2873,7 @@
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -3115,7 +2884,7 @@
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
     </row>
-    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -3125,7 +2894,7 @@
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -3136,7 +2905,7 @@
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
     </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -3146,7 +2915,7 @@
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -3157,7 +2926,7 @@
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
     </row>
-    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -3167,7 +2936,7 @@
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -3178,7 +2947,7 @@
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -3188,7 +2957,7 @@
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
     </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
         <v>249</v>
       </c>
@@ -3199,7 +2968,7 @@
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
     </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -3209,7 +2978,7 @@
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -3220,7 +2989,7 @@
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -3230,7 +2999,7 @@
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -3241,7 +3010,7 @@
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
     </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -3251,7 +3020,7 @@
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -3262,7 +3031,7 @@
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
     </row>
-    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -3272,7 +3041,7 @@
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -3283,7 +3052,7 @@
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
     </row>
-    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -3293,7 +3062,7 @@
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -3304,7 +3073,7 @@
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
     </row>
-    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -3313,7 +3082,7 @@
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -3324,7 +3093,7 @@
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
     </row>
-    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -3333,7 +3102,7 @@
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -3344,7 +3113,7 @@
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
     </row>
-    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -3353,7 +3122,7 @@
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
         <v>265</v>
       </c>
@@ -3364,7 +3133,7 @@
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
     </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -3373,7 +3142,7 @@
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
         <v>267</v>
       </c>
@@ -3384,7 +3153,7 @@
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -3393,7 +3162,7 @@
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>269</v>
       </c>
@@ -3404,7 +3173,7 @@
       <c r="F270" s="11"/>
       <c r="G270" s="11"/>
     </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -3413,7 +3182,7 @@
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>271</v>
       </c>
@@ -3424,7 +3193,7 @@
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
     </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -3433,7 +3202,7 @@
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>273</v>
       </c>
@@ -3444,7 +3213,7 @@
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
     </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -3453,7 +3222,7 @@
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>275</v>
       </c>
@@ -3464,7 +3233,7 @@
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -3473,7 +3242,7 @@
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>277</v>
       </c>
@@ -3484,7 +3253,7 @@
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
     </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -3493,7 +3262,7 @@
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>279</v>
       </c>
@@ -3504,7 +3273,7 @@
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -3513,7 +3282,7 @@
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8">
         <v>281</v>
       </c>
@@ -3524,7 +3293,7 @@
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -3533,7 +3302,7 @@
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
         <v>283</v>
       </c>
@@ -3544,7 +3313,7 @@
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -3553,7 +3322,7 @@
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="8">
         <v>285</v>
       </c>
@@ -3564,7 +3333,7 @@
       <c r="F286" s="11"/>
       <c r="G286" s="11"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -3573,7 +3342,7 @@
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="8">
         <v>287</v>
       </c>
@@ -3584,7 +3353,7 @@
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -3593,7 +3362,7 @@
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="8">
         <v>289</v>
       </c>
@@ -3604,7 +3373,7 @@
       <c r="F290" s="11"/>
       <c r="G290" s="11"/>
     </row>
-    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -3613,7 +3382,7 @@
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8">
         <v>291</v>
       </c>
@@ -3624,7 +3393,7 @@
       <c r="F292" s="11"/>
       <c r="G292" s="11"/>
     </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -3633,7 +3402,7 @@
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="8">
         <v>293</v>
       </c>
@@ -3644,7 +3413,7 @@
       <c r="F294" s="11"/>
       <c r="G294" s="11"/>
     </row>
-    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -3653,7 +3422,7 @@
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
-    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="8">
         <v>295</v>
       </c>
@@ -3664,7 +3433,7 @@
       <c r="F296" s="11"/>
       <c r="G296" s="11"/>
     </row>
-    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -3673,7 +3442,7 @@
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -3684,7 +3453,7 @@
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
     </row>
-    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -3693,7 +3462,7 @@
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
     </row>
-    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -3704,7 +3473,7 @@
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
     </row>
-    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -3713,7 +3482,7 @@
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
     </row>
-    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -3724,7 +3493,7 @@
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -3733,7 +3502,7 @@
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
     </row>
-    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -3744,7 +3513,7 @@
       <c r="F304" s="11"/>
       <c r="G304" s="11"/>
     </row>
-    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -3753,7 +3522,7 @@
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
     </row>
-    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
         <v>305</v>
       </c>
@@ -3764,7 +3533,7 @@
       <c r="F306" s="11"/>
       <c r="G306" s="11"/>
     </row>
-    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -3773,7 +3542,7 @@
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
-    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
         <v>307</v>
       </c>
@@ -3784,7 +3553,7 @@
       <c r="F308" s="11"/>
       <c r="G308" s="11"/>
     </row>
-    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -3793,7 +3562,7 @@
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
-    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
         <v>309</v>
       </c>
@@ -3804,7 +3573,7 @@
       <c r="F310" s="11"/>
       <c r="G310" s="11"/>
     </row>
-    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -3813,7 +3582,7 @@
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
     </row>
-    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
         <v>311</v>
       </c>
@@ -3824,7 +3593,7 @@
       <c r="F312" s="11"/>
       <c r="G312" s="11"/>
     </row>
-    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -3833,7 +3602,7 @@
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8">
         <v>313</v>
       </c>
@@ -3844,7 +3613,7 @@
       <c r="F314" s="11"/>
       <c r="G314" s="11"/>
     </row>
-    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -3853,7 +3622,7 @@
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
     </row>
-    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
         <v>315</v>
       </c>
@@ -3864,7 +3633,7 @@
       <c r="F316" s="11"/>
       <c r="G316" s="11"/>
     </row>
-    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -3873,7 +3642,7 @@
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
     </row>
-    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
         <v>317</v>
       </c>
@@ -3884,7 +3653,7 @@
       <c r="F318" s="11"/>
       <c r="G318" s="11"/>
     </row>
-    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -3893,7 +3662,7 @@
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
     </row>
-    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
         <v>319</v>
       </c>
@@ -3904,7 +3673,7 @@
       <c r="F320" s="11"/>
       <c r="G320" s="11"/>
     </row>
-    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -3913,7 +3682,7 @@
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
     </row>
-    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
         <v>321</v>
       </c>
@@ -3924,7 +3693,7 @@
       <c r="F322" s="11"/>
       <c r="G322" s="11"/>
     </row>
-    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -3933,7 +3702,7 @@
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
     </row>
-    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
         <v>323</v>
       </c>
@@ -3944,7 +3713,7 @@
       <c r="F324" s="11"/>
       <c r="G324" s="11"/>
     </row>
-    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -3953,7 +3722,7 @@
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
     </row>
-    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <v>325</v>
       </c>
@@ -3964,7 +3733,7 @@
       <c r="F326" s="11"/>
       <c r="G326" s="11"/>
     </row>
-    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -3973,7 +3742,7 @@
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
-    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>327</v>
       </c>
@@ -3984,7 +3753,7 @@
       <c r="F328" s="11"/>
       <c r="G328" s="11"/>
     </row>
-    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -3993,7 +3762,7 @@
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
-    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
         <v>329</v>
       </c>
@@ -4004,7 +3773,7 @@
       <c r="F330" s="11"/>
       <c r="G330" s="11"/>
     </row>
-    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -4013,7 +3782,7 @@
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
     </row>
-    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
         <v>331</v>
       </c>
@@ -4024,7 +3793,7 @@
       <c r="F332" s="11"/>
       <c r="G332" s="11"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -4033,7 +3802,7 @@
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
     </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
         <v>333</v>
       </c>
@@ -4044,7 +3813,7 @@
       <c r="F334" s="11"/>
       <c r="G334" s="11"/>
     </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -4053,7 +3822,7 @@
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
         <v>335</v>
       </c>
@@ -4064,7 +3833,7 @@
       <c r="F336" s="11"/>
       <c r="G336" s="11"/>
     </row>
-    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -4073,7 +3842,7 @@
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
     </row>
-    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="8">
         <v>337</v>
       </c>
@@ -4084,7 +3853,7 @@
       <c r="F338" s="11"/>
       <c r="G338" s="11"/>
     </row>
-    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -4093,7 +3862,7 @@
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="8">
         <v>339</v>
       </c>
@@ -4104,7 +3873,7 @@
       <c r="F340" s="11"/>
       <c r="G340" s="11"/>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -4113,7 +3882,7 @@
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
     </row>
-    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -4124,7 +3893,7 @@
       <c r="F342" s="11"/>
       <c r="G342" s="11"/>
     </row>
-    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -4133,7 +3902,7 @@
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -4144,7 +3913,7 @@
       <c r="F344" s="11"/>
       <c r="G344" s="11"/>
     </row>
-    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -4153,7 +3922,7 @@
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
     </row>
-    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -4164,7 +3933,7 @@
       <c r="F346" s="11"/>
       <c r="G346" s="11"/>
     </row>
-    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -4173,7 +3942,7 @@
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
     </row>
-    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -4184,7 +3953,7 @@
       <c r="F348" s="11"/>
       <c r="G348" s="11"/>
     </row>
-    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -4193,7 +3962,7 @@
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -4204,7 +3973,7 @@
       <c r="F350" s="11"/>
       <c r="G350" s="11"/>
     </row>
-    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>350</v>
       </c>
@@ -4213,7 +3982,7 @@
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="8">
         <v>351</v>
       </c>
@@ -4224,7 +3993,7 @@
       <c r="F352" s="11"/>
       <c r="G352" s="11"/>
     </row>
-    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>352</v>
       </c>
@@ -4233,7 +4002,7 @@
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
     </row>
-    <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="8">
         <v>353</v>
       </c>
@@ -4244,7 +4013,7 @@
       <c r="F354" s="11"/>
       <c r="G354" s="11"/>
     </row>
-    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>354</v>
       </c>
@@ -4253,7 +4022,7 @@
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
     </row>
-    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="8">
         <v>355</v>
       </c>
@@ -4264,7 +4033,7 @@
       <c r="F356" s="11"/>
       <c r="G356" s="11"/>
     </row>
-    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>356</v>
       </c>
@@ -4273,7 +4042,7 @@
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="8">
         <v>357</v>
       </c>
@@ -4284,7 +4053,7 @@
       <c r="F358" s="11"/>
       <c r="G358" s="11"/>
     </row>
-    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>358</v>
       </c>
@@ -4293,7 +4062,7 @@
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
     </row>
-    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="8">
         <v>359</v>
       </c>
@@ -4304,7 +4073,7 @@
       <c r="F360" s="11"/>
       <c r="G360" s="11"/>
     </row>
-    <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>360</v>
       </c>
@@ -4313,7 +4082,7 @@
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
     </row>
-    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="8">
         <v>361</v>
       </c>
@@ -4324,7 +4093,7 @@
       <c r="F362" s="11"/>
       <c r="G362" s="11"/>
     </row>
-    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>362</v>
       </c>
@@ -4333,7 +4102,7 @@
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="8">
         <v>363</v>
       </c>
@@ -4344,7 +4113,7 @@
       <c r="F364" s="11"/>
       <c r="G364" s="11"/>
     </row>
-    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>364</v>
       </c>
@@ -4353,7 +4122,7 @@
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="8">
         <v>365</v>
       </c>
@@ -4364,7 +4133,7 @@
       <c r="F366" s="11"/>
       <c r="G366" s="11"/>
     </row>
-    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>366</v>
       </c>
@@ -4373,7 +4142,7 @@
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
     </row>
-    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="8">
         <v>367</v>
       </c>
@@ -4384,7 +4153,7 @@
       <c r="F368" s="11"/>
       <c r="G368" s="11"/>
     </row>
-    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>368</v>
       </c>
@@ -4393,7 +4162,7 @@
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
     </row>
-    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="8">
         <v>369</v>
       </c>
@@ -4404,7 +4173,7 @@
       <c r="F370" s="11"/>
       <c r="G370" s="11"/>
     </row>
-    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>370</v>
       </c>
@@ -4413,7 +4182,7 @@
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
     </row>
-    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="8">
         <v>371</v>
       </c>
@@ -4424,7 +4193,7 @@
       <c r="F372" s="11"/>
       <c r="G372" s="11"/>
     </row>
-    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>372</v>
       </c>
@@ -4433,7 +4202,7 @@
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
     </row>
-    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="8">
         <v>373</v>
       </c>
@@ -4444,7 +4213,7 @@
       <c r="F374" s="11"/>
       <c r="G374" s="11"/>
     </row>
-    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>374</v>
       </c>
@@ -4453,7 +4222,7 @@
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
     </row>
-    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="8">
         <v>375</v>
       </c>
@@ -4464,7 +4233,7 @@
       <c r="F376" s="11"/>
       <c r="G376" s="11"/>
     </row>
-    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>376</v>
       </c>
@@ -4473,7 +4242,7 @@
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
     </row>
-    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="8">
         <v>377</v>
       </c>
@@ -4484,7 +4253,7 @@
       <c r="F378" s="11"/>
       <c r="G378" s="11"/>
     </row>
-    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>378</v>
       </c>
@@ -4493,7 +4262,7 @@
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
-    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="8">
         <v>379</v>
       </c>
@@ -4504,7 +4273,7 @@
       <c r="F380" s="11"/>
       <c r="G380" s="11"/>
     </row>
-    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>380</v>
       </c>
@@ -4513,7 +4282,7 @@
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
     </row>
-    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="8">
         <v>381</v>
       </c>
@@ -4524,7 +4293,7 @@
       <c r="F382" s="11"/>
       <c r="G382" s="11"/>
     </row>
-    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>382</v>
       </c>
@@ -4533,7 +4302,7 @@
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
     </row>
-    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="8">
         <v>383</v>
       </c>
@@ -4544,7 +4313,7 @@
       <c r="F384" s="11"/>
       <c r="G384" s="11"/>
     </row>
-    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>384</v>
       </c>
@@ -4553,7 +4322,7 @@
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
     </row>
-    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="8">
         <v>385</v>
       </c>
@@ -4564,7 +4333,7 @@
       <c r="F386" s="11"/>
       <c r="G386" s="11"/>
     </row>
-    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>386</v>
       </c>
@@ -4573,7 +4342,7 @@
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
     </row>
-    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="8">
         <v>387</v>
       </c>
@@ -4584,7 +4353,7 @@
       <c r="F388" s="11"/>
       <c r="G388" s="11"/>
     </row>
-    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>388</v>
       </c>
@@ -4593,7 +4362,7 @@
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
     </row>
-    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="8">
         <v>389</v>
       </c>
@@ -4604,7 +4373,7 @@
       <c r="F390" s="11"/>
       <c r="G390" s="11"/>
     </row>
-    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>390</v>
       </c>
@@ -4613,7 +4382,7 @@
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
     </row>
-    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="8">
         <v>391</v>
       </c>
@@ -4624,7 +4393,7 @@
       <c r="F392" s="11"/>
       <c r="G392" s="11"/>
     </row>
-    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
         <v>392</v>
       </c>
@@ -4633,7 +4402,7 @@
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
     </row>
-    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="8">
         <v>393</v>
       </c>
@@ -4644,7 +4413,7 @@
       <c r="F394" s="11"/>
       <c r="G394" s="11"/>
     </row>
-    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>394</v>
       </c>
@@ -4653,7 +4422,7 @@
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
     </row>
-    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="8">
         <v>395</v>
       </c>
@@ -4664,7 +4433,7 @@
       <c r="F396" s="11"/>
       <c r="G396" s="11"/>
     </row>
-    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>396</v>
       </c>
@@ -4673,7 +4442,7 @@
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
     </row>
-    <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="8">
         <v>397</v>
       </c>
@@ -4684,7 +4453,7 @@
       <c r="F398" s="11"/>
       <c r="G398" s="11"/>
     </row>
-    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>398</v>
       </c>
@@ -4693,7 +4462,7 @@
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
     </row>
-    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="8">
         <v>399</v>
       </c>
@@ -4704,7 +4473,7 @@
       <c r="F400" s="11"/>
       <c r="G400" s="11"/>
     </row>
-    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>400</v>
       </c>
@@ -4713,7 +4482,7 @@
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
     </row>
-    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="8">
         <v>401</v>
       </c>
@@ -4724,7 +4493,7 @@
       <c r="F402" s="11"/>
       <c r="G402" s="11"/>
     </row>
-    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>402</v>
       </c>
@@ -4733,7 +4502,7 @@
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="8">
         <v>403</v>
       </c>
@@ -4744,7 +4513,7 @@
       <c r="F404" s="11"/>
       <c r="G404" s="11"/>
     </row>
-    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>404</v>
       </c>
@@ -4753,7 +4522,7 @@
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
     </row>
-    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="8">
         <v>405</v>
       </c>
@@ -4764,7 +4533,7 @@
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
     </row>
-    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>406</v>
       </c>
@@ -4773,7 +4542,7 @@
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
     </row>
-    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="8">
         <v>407</v>
       </c>
@@ -4784,7 +4553,7 @@
       <c r="F408" s="11"/>
       <c r="G408" s="11"/>
     </row>
-    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>408</v>
       </c>
@@ -4793,7 +4562,7 @@
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
     </row>
-    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="8">
         <v>409</v>
       </c>
@@ -4804,7 +4573,7 @@
       <c r="F410" s="11"/>
       <c r="G410" s="11"/>
     </row>
-    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>410</v>
       </c>
@@ -4813,7 +4582,7 @@
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
     </row>
-    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="8">
         <v>411</v>
       </c>
@@ -4824,7 +4593,7 @@
       <c r="F412" s="11"/>
       <c r="G412" s="11"/>
     </row>
-    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>412</v>
       </c>
@@ -4833,7 +4602,7 @@
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
     </row>
-    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="8">
         <v>413</v>
       </c>
@@ -4844,7 +4613,7 @@
       <c r="F414" s="11"/>
       <c r="G414" s="11"/>
     </row>
-    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>414</v>
       </c>
@@ -4853,7 +4622,7 @@
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
     </row>
-    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="8">
         <v>415</v>
       </c>
@@ -4864,7 +4633,7 @@
       <c r="F416" s="11"/>
       <c r="G416" s="11"/>
     </row>
-    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>416</v>
       </c>
@@ -4873,7 +4642,7 @@
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
     </row>
-    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="8">
         <v>417</v>
       </c>
@@ -4884,7 +4653,7 @@
       <c r="F418" s="11"/>
       <c r="G418" s="11"/>
     </row>
-    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>418</v>
       </c>
@@ -4893,7 +4662,7 @@
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
     </row>
-    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="8">
         <v>419</v>
       </c>
@@ -4904,7 +4673,7 @@
       <c r="F420" s="11"/>
       <c r="G420" s="11"/>
     </row>
-    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>420</v>
       </c>
@@ -4913,7 +4682,7 @@
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
     </row>
-    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="8">
         <v>421</v>
       </c>
@@ -4924,7 +4693,7 @@
       <c r="F422" s="11"/>
       <c r="G422" s="11"/>
     </row>
-    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>422</v>
       </c>
@@ -4934,7 +4703,7 @@
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
     </row>
-    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="8">
         <v>423</v>
       </c>
@@ -4945,7 +4714,7 @@
       <c r="F424" s="11"/>
       <c r="G424" s="11"/>
     </row>
-    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>424</v>
       </c>
@@ -4955,7 +4724,7 @@
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
     </row>
-    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="8">
         <v>425</v>
       </c>
@@ -4966,7 +4735,7 @@
       <c r="F426" s="11"/>
       <c r="G426" s="11"/>
     </row>
-    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>426</v>
       </c>
@@ -4976,7 +4745,7 @@
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="8">
         <v>427</v>
       </c>
@@ -4987,7 +4756,7 @@
       <c r="F428" s="11"/>
       <c r="G428" s="11"/>
     </row>
-    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>428</v>
       </c>
@@ -4997,7 +4766,7 @@
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
     </row>
-    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="8">
         <v>429</v>
       </c>
@@ -5008,7 +4777,7 @@
       <c r="F430" s="11"/>
       <c r="G430" s="11"/>
     </row>
-    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>430</v>
       </c>
@@ -5018,7 +4787,7 @@
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
     </row>
-    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="8">
         <v>431</v>
       </c>
@@ -5029,7 +4798,7 @@
       <c r="F432" s="11"/>
       <c r="G432" s="11"/>
     </row>
-    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>432</v>
       </c>
@@ -5039,7 +4808,7 @@
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
     </row>
-    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="8">
         <v>433</v>
       </c>
@@ -5050,7 +4819,7 @@
       <c r="F434" s="11"/>
       <c r="G434" s="11"/>
     </row>
-    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
         <v>434</v>
       </c>
@@ -5060,7 +4829,7 @@
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
     </row>
-    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="8">
         <v>435</v>
       </c>
@@ -5071,7 +4840,7 @@
       <c r="F436" s="11"/>
       <c r="G436" s="11"/>
     </row>
-    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
         <v>436</v>
       </c>
@@ -5081,7 +4850,7 @@
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
     </row>
-    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="8">
         <v>437</v>
       </c>
@@ -5092,7 +4861,7 @@
       <c r="F438" s="11"/>
       <c r="G438" s="11"/>
     </row>
-    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>438</v>
       </c>
@@ -5102,7 +4871,7 @@
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
     </row>
-    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="8">
         <v>439</v>
       </c>
@@ -5113,7 +4882,7 @@
       <c r="F440" s="11"/>
       <c r="G440" s="11"/>
     </row>
-    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
         <v>440</v>
       </c>
@@ -5123,7 +4892,7 @@
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
     </row>
-    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="8">
         <v>441</v>
       </c>
@@ -5134,7 +4903,7 @@
       <c r="F442" s="11"/>
       <c r="G442" s="11"/>
     </row>
-    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>442</v>
       </c>
@@ -5144,7 +4913,7 @@
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
     </row>
-    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="8">
         <v>443</v>
       </c>
@@ -5155,7 +4924,7 @@
       <c r="F444" s="11"/>
       <c r="G444" s="11"/>
     </row>
-    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
         <v>444</v>
       </c>
@@ -5165,7 +4934,7 @@
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
     </row>
-    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="8">
         <v>445</v>
       </c>
@@ -5176,7 +4945,7 @@
       <c r="F446" s="11"/>
       <c r="G446" s="11"/>
     </row>
-    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>446</v>
       </c>
@@ -5186,7 +4955,7 @@
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
     </row>
-    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="8">
         <v>447</v>
       </c>
@@ -5197,7 +4966,7 @@
       <c r="F448" s="11"/>
       <c r="G448" s="11"/>
     </row>
-    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <v>448</v>
       </c>
@@ -5207,7 +4976,7 @@
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="8">
         <v>449</v>
       </c>
@@ -5218,7 +4987,7 @@
       <c r="F450" s="11"/>
       <c r="G450" s="11"/>
     </row>
-    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <v>450</v>
       </c>
@@ -5228,7 +4997,7 @@
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
     </row>
-    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="8">
         <v>451</v>
       </c>
@@ -5239,7 +5008,7 @@
       <c r="F452" s="11"/>
       <c r="G452" s="11"/>
     </row>
-    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
         <v>452</v>
       </c>
@@ -5249,7 +5018,7 @@
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
     </row>
-    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="8">
         <v>453</v>
       </c>
@@ -5260,7 +5029,7 @@
       <c r="F454" s="11"/>
       <c r="G454" s="11"/>
     </row>
-    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>454</v>
       </c>
@@ -5270,7 +5039,7 @@
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
     </row>
-    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="8">
         <v>455</v>
       </c>
@@ -5281,7 +5050,7 @@
       <c r="F456" s="11"/>
       <c r="G456" s="11"/>
     </row>
-    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>456</v>
       </c>
@@ -5291,7 +5060,7 @@
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
     </row>
-    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="8">
         <v>457</v>
       </c>
@@ -5302,7 +5071,7 @@
       <c r="F458" s="11"/>
       <c r="G458" s="11"/>
     </row>
-    <row r="459" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>458</v>
       </c>
@@ -5312,7 +5081,7 @@
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
     </row>
-    <row r="460" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="8">
         <v>459</v>
       </c>
@@ -5323,7 +5092,7 @@
       <c r="F460" s="11"/>
       <c r="G460" s="11"/>
     </row>
-    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>460</v>
       </c>
@@ -5333,7 +5102,7 @@
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
     </row>
-    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="8">
         <v>461</v>
       </c>
@@ -5344,7 +5113,7 @@
       <c r="F462" s="11"/>
       <c r="G462" s="11"/>
     </row>
-    <row r="463" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>462</v>
       </c>
@@ -5354,7 +5123,7 @@
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
     </row>
-    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="8">
         <v>463</v>
       </c>
@@ -5365,7 +5134,7 @@
       <c r="F464" s="11"/>
       <c r="G464" s="11"/>
     </row>
-    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
         <v>464</v>
       </c>
@@ -5375,7 +5144,7 @@
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
     </row>
-    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="8">
         <v>465</v>
       </c>
@@ -5386,7 +5155,7 @@
       <c r="F466" s="11"/>
       <c r="G466" s="11"/>
     </row>
-    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>466</v>
       </c>
@@ -5396,7 +5165,7 @@
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
     </row>
-    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="8">
         <v>467</v>
       </c>
@@ -5407,7 +5176,7 @@
       <c r="F468" s="11"/>
       <c r="G468" s="11"/>
     </row>
-    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
         <v>468</v>
       </c>
@@ -5417,7 +5186,7 @@
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
     </row>
-    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="8">
         <v>469</v>
       </c>
@@ -5428,7 +5197,7 @@
       <c r="F470" s="11"/>
       <c r="G470" s="11"/>
     </row>
-    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>470</v>
       </c>
@@ -5437,7 +5206,7 @@
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
     </row>
-    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="8">
         <v>471</v>
       </c>
@@ -5448,7 +5217,7 @@
       <c r="F472" s="11"/>
       <c r="G472" s="11"/>
     </row>
-    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>472</v>
       </c>
@@ -5457,7 +5226,7 @@
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
     </row>
-    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="8">
         <v>473</v>
       </c>
@@ -5468,7 +5237,7 @@
       <c r="F474" s="11"/>
       <c r="G474" s="11"/>
     </row>
-    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
         <v>474</v>
       </c>
@@ -5477,7 +5246,7 @@
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
     </row>
-    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="8">
         <v>475</v>
       </c>
@@ -5488,7 +5257,7 @@
       <c r="F476" s="11"/>
       <c r="G476" s="11"/>
     </row>
-    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>476</v>
       </c>
@@ -5497,7 +5266,7 @@
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
     </row>
-    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="8">
         <v>477</v>
       </c>
@@ -5508,7 +5277,7 @@
       <c r="F478" s="11"/>
       <c r="G478" s="11"/>
     </row>
-    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>478</v>
       </c>
@@ -5517,7 +5286,7 @@
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
     </row>
-    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="8">
         <v>479</v>
       </c>
@@ -5528,7 +5297,7 @@
       <c r="F480" s="11"/>
       <c r="G480" s="11"/>
     </row>
-    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
         <v>480</v>
       </c>
@@ -5537,7 +5306,7 @@
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
     </row>
-    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="8">
         <v>481</v>
       </c>
@@ -5548,7 +5317,7 @@
       <c r="F482" s="11"/>
       <c r="G482" s="11"/>
     </row>
-    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
         <v>482</v>
       </c>
@@ -5557,7 +5326,7 @@
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
     </row>
-    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="8">
         <v>483</v>
       </c>
@@ -5568,7 +5337,7 @@
       <c r="F484" s="11"/>
       <c r="G484" s="11"/>
     </row>
-    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>484</v>
       </c>
@@ -5577,7 +5346,7 @@
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
     </row>
-    <row r="486" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="8">
         <v>485</v>
       </c>
@@ -5588,7 +5357,7 @@
       <c r="F486" s="11"/>
       <c r="G486" s="11"/>
     </row>
-    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3">
         <v>486</v>
       </c>
@@ -5597,7 +5366,7 @@
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
     </row>
-    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="8">
         <v>487</v>
       </c>
@@ -5608,7 +5377,7 @@
       <c r="F488" s="11"/>
       <c r="G488" s="11"/>
     </row>
-    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
         <v>488</v>
       </c>
@@ -5617,7 +5386,7 @@
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
     </row>
-    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="8">
         <v>489</v>
       </c>
@@ -5628,7 +5397,7 @@
       <c r="F490" s="11"/>
       <c r="G490" s="11"/>
     </row>
-    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
         <v>490</v>
       </c>
@@ -5637,7 +5406,7 @@
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
     </row>
-    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="8">
         <v>491</v>
       </c>
@@ -5648,7 +5417,7 @@
       <c r="F492" s="11"/>
       <c r="G492" s="11"/>
     </row>
-    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>492</v>
       </c>
@@ -5657,7 +5426,7 @@
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
     </row>
-    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="8">
         <v>493</v>
       </c>
@@ -5668,7 +5437,7 @@
       <c r="F494" s="11"/>
       <c r="G494" s="11"/>
     </row>
-    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
         <v>494</v>
       </c>
@@ -5677,7 +5446,7 @@
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
     </row>
-    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="8">
         <v>495</v>
       </c>
@@ -5688,7 +5457,7 @@
       <c r="F496" s="11"/>
       <c r="G496" s="11"/>
     </row>
-    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="3">
         <v>496</v>
       </c>
@@ -5697,7 +5466,7 @@
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
     </row>
-    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="8">
         <v>497</v>
       </c>
@@ -5708,7 +5477,7 @@
       <c r="F498" s="11"/>
       <c r="G498" s="11"/>
     </row>
-    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
         <v>498</v>
       </c>
@@ -5717,7 +5486,7 @@
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
     </row>
-    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="8">
         <v>499</v>
       </c>
@@ -5728,7 +5497,7 @@
       <c r="F500" s="11"/>
       <c r="G500" s="11"/>
     </row>
-    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3">
         <v>500</v>
       </c>
@@ -5737,7 +5506,7 @@
       <c r="E501" s="5"/>
       <c r="F501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="8">
         <v>501</v>
       </c>
@@ -5748,7 +5517,7 @@
       <c r="F502" s="11"/>
       <c r="G502" s="11"/>
     </row>
-    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
         <v>502</v>
       </c>
@@ -5757,7 +5526,7 @@
       <c r="E503" s="5"/>
       <c r="F503" s="5"/>
     </row>
-    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="8">
         <v>503</v>
       </c>
@@ -5768,7 +5537,7 @@
       <c r="F504" s="11"/>
       <c r="G504" s="11"/>
     </row>
-    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
         <v>504</v>
       </c>
@@ -5777,7 +5546,7 @@
       <c r="E505" s="5"/>
       <c r="F505" s="5"/>
     </row>
-    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="8">
         <v>505</v>
       </c>
@@ -5788,7 +5557,7 @@
       <c r="F506" s="11"/>
       <c r="G506" s="11"/>
     </row>
-    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="3">
         <v>506</v>
       </c>
@@ -5797,7 +5566,7 @@
       <c r="E507" s="5"/>
       <c r="F507" s="5"/>
     </row>
-    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="8">
         <v>507</v>
       </c>
@@ -5808,7 +5577,7 @@
       <c r="F508" s="11"/>
       <c r="G508" s="11"/>
     </row>
-    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="3">
         <v>508</v>
       </c>
@@ -5817,7 +5586,7 @@
       <c r="E509" s="5"/>
       <c r="F509" s="5"/>
     </row>
-    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="8">
         <v>509</v>
       </c>
@@ -5828,7 +5597,7 @@
       <c r="F510" s="11"/>
       <c r="G510" s="11"/>
     </row>
-    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="3">
         <v>510</v>
       </c>
@@ -5837,7 +5606,7 @@
       <c r="E511" s="5"/>
       <c r="F511" s="5"/>
     </row>
-    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="8">
         <v>511</v>
       </c>
@@ -5848,7 +5617,7 @@
       <c r="F512" s="11"/>
       <c r="G512" s="11"/>
     </row>
-    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3">
         <v>512</v>
       </c>
@@ -5857,7 +5626,7 @@
       <c r="E513" s="5"/>
       <c r="F513" s="5"/>
     </row>
-    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="8">
         <v>513</v>
       </c>
@@ -5868,7 +5637,7 @@
       <c r="F514" s="11"/>
       <c r="G514" s="11"/>
     </row>
-    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>514</v>
       </c>
@@ -5877,7 +5646,7 @@
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
     </row>
-    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="8">
         <v>515</v>
       </c>
@@ -5888,7 +5657,7 @@
       <c r="F516" s="11"/>
       <c r="G516" s="11"/>
     </row>
-    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3">
         <v>516</v>
       </c>
@@ -5897,7 +5666,7 @@
       <c r="E517" s="5"/>
       <c r="F517" s="5"/>
     </row>
-    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="8">
         <v>517</v>
       </c>
@@ -5908,7 +5677,7 @@
       <c r="F518" s="11"/>
       <c r="G518" s="11"/>
     </row>
-    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="3">
         <v>518</v>
       </c>
@@ -5917,7 +5686,7 @@
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
     </row>
-    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="8">
         <v>519</v>
       </c>
@@ -5928,7 +5697,7 @@
       <c r="F520" s="11"/>
       <c r="G520" s="11"/>
     </row>
-    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3">
         <v>520</v>
       </c>
@@ -5937,7 +5706,7 @@
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
     </row>
-    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="8">
         <v>521</v>
       </c>
@@ -5948,7 +5717,7 @@
       <c r="F522" s="11"/>
       <c r="G522" s="11"/>
     </row>
-    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="3">
         <v>522</v>
       </c>
@@ -5957,7 +5726,7 @@
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
     </row>
-    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="8">
         <v>523</v>
       </c>
@@ -5968,7 +5737,7 @@
       <c r="F524" s="11"/>
       <c r="G524" s="11"/>
     </row>
-    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="3">
         <v>524</v>
       </c>
@@ -5977,7 +5746,7 @@
       <c r="E525" s="5"/>
       <c r="F525" s="5"/>
     </row>
-    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="8">
         <v>525</v>
       </c>
@@ -5988,7 +5757,7 @@
       <c r="F526" s="11"/>
       <c r="G526" s="11"/>
     </row>
-    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3">
         <v>526</v>
       </c>
@@ -5997,7 +5766,7 @@
       <c r="E527" s="5"/>
       <c r="F527" s="5"/>
     </row>
-    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="8">
         <v>527</v>
       </c>
@@ -6008,7 +5777,7 @@
       <c r="F528" s="11"/>
       <c r="G528" s="11"/>
     </row>
-    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3">
         <v>528</v>
       </c>
@@ -6017,7 +5786,7 @@
       <c r="E529" s="5"/>
       <c r="F529" s="5"/>
     </row>
-    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="8">
         <v>529</v>
       </c>
@@ -6028,7 +5797,7 @@
       <c r="F530" s="11"/>
       <c r="G530" s="11"/>
     </row>
-    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3">
         <v>530</v>
       </c>
@@ -6037,7 +5806,7 @@
       <c r="E531" s="5"/>
       <c r="F531" s="5"/>
     </row>
-    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="8">
         <v>531</v>
       </c>
@@ -6048,7 +5817,7 @@
       <c r="F532" s="11"/>
       <c r="G532" s="11"/>
     </row>
-    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3">
         <v>532</v>
       </c>
@@ -6057,7 +5826,7 @@
       <c r="E533" s="5"/>
       <c r="F533" s="5"/>
     </row>
-    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="8">
         <v>533</v>
       </c>
@@ -6068,7 +5837,7 @@
       <c r="F534" s="11"/>
       <c r="G534" s="11"/>
     </row>
-    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3">
         <v>534</v>
       </c>
@@ -6077,7 +5846,7 @@
       <c r="E535" s="5"/>
       <c r="F535" s="5"/>
     </row>
-    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="8">
         <v>535</v>
       </c>
@@ -6088,7 +5857,7 @@
       <c r="F536" s="11"/>
       <c r="G536" s="11"/>
     </row>
-    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3">
         <v>536</v>
       </c>
@@ -6097,7 +5866,7 @@
       <c r="E537" s="5"/>
       <c r="F537" s="5"/>
     </row>
-    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="8">
         <v>537</v>
       </c>
@@ -6108,7 +5877,7 @@
       <c r="F538" s="11"/>
       <c r="G538" s="11"/>
     </row>
-    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="3">
         <v>538</v>
       </c>
@@ -6117,7 +5886,7 @@
       <c r="E539" s="5"/>
       <c r="F539" s="5"/>
     </row>
-    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="8">
         <v>539</v>
       </c>
@@ -6128,7 +5897,7 @@
       <c r="F540" s="11"/>
       <c r="G540" s="11"/>
     </row>
-    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="3">
         <v>540</v>
       </c>
@@ -6137,7 +5906,7 @@
       <c r="E541" s="5"/>
       <c r="F541" s="5"/>
     </row>
-    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="8">
         <v>541</v>
       </c>
@@ -6148,7 +5917,7 @@
       <c r="F542" s="11"/>
       <c r="G542" s="11"/>
     </row>
-    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3">
         <v>542</v>
       </c>
@@ -6157,7 +5926,7 @@
       <c r="E543" s="5"/>
       <c r="F543" s="5"/>
     </row>
-    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="8">
         <v>543</v>
       </c>
@@ -6168,7 +5937,7 @@
       <c r="F544" s="11"/>
       <c r="G544" s="11"/>
     </row>
-    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3">
         <v>544</v>
       </c>
@@ -6177,7 +5946,7 @@
       <c r="E545" s="5"/>
       <c r="F545" s="5"/>
     </row>
-    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="8">
         <v>545</v>
       </c>
@@ -6188,7 +5957,7 @@
       <c r="F546" s="11"/>
       <c r="G546" s="11"/>
     </row>
-    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3">
         <v>546</v>
       </c>
@@ -6197,7 +5966,7 @@
       <c r="E547" s="5"/>
       <c r="F547" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="8">
         <v>547</v>
       </c>
@@ -6208,7 +5977,7 @@
       <c r="F548" s="11"/>
       <c r="G548" s="11"/>
     </row>
-    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3">
         <v>548</v>
       </c>
@@ -6217,7 +5986,7 @@
       <c r="E549" s="5"/>
       <c r="F549" s="5"/>
     </row>
-    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="8">
         <v>549</v>
       </c>
@@ -6228,7 +5997,7 @@
       <c r="F550" s="11"/>
       <c r="G550" s="11"/>
     </row>
-    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3">
         <v>550</v>
       </c>
@@ -6237,7 +6006,7 @@
       <c r="E551" s="5"/>
       <c r="F551" s="5"/>
     </row>
-    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="8">
         <v>551</v>
       </c>
@@ -6248,7 +6017,7 @@
       <c r="F552" s="11"/>
       <c r="G552" s="11"/>
     </row>
-    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="3">
         <v>552</v>
       </c>
@@ -6257,7 +6026,7 @@
       <c r="E553" s="5"/>
       <c r="F553" s="5"/>
     </row>
-    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="8">
         <v>553</v>
       </c>
@@ -6268,7 +6037,7 @@
       <c r="F554" s="11"/>
       <c r="G554" s="11"/>
     </row>
-    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="3">
         <v>554</v>
       </c>
@@ -6277,7 +6046,7 @@
       <c r="E555" s="5"/>
       <c r="F555" s="5"/>
     </row>
-    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="8">
         <v>555</v>
       </c>
@@ -6288,7 +6057,7 @@
       <c r="F556" s="11"/>
       <c r="G556" s="11"/>
     </row>
-    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3">
         <v>556</v>
       </c>
@@ -6297,7 +6066,7 @@
       <c r="E557" s="5"/>
       <c r="F557" s="5"/>
     </row>
-    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="8">
         <v>557</v>
       </c>
@@ -6308,7 +6077,7 @@
       <c r="F558" s="11"/>
       <c r="G558" s="11"/>
     </row>
-    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3">
         <v>558</v>
       </c>
@@ -6317,7 +6086,7 @@
       <c r="E559" s="5"/>
       <c r="F559" s="5"/>
     </row>
-    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="8">
         <v>559</v>
       </c>
@@ -6328,7 +6097,7 @@
       <c r="F560" s="11"/>
       <c r="G560" s="11"/>
     </row>
-    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3">
         <v>560</v>
       </c>
@@ -6337,7 +6106,7 @@
       <c r="E561" s="5"/>
       <c r="F561" s="5"/>
     </row>
-    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="8">
         <v>561</v>
       </c>
@@ -6348,7 +6117,7 @@
       <c r="F562" s="11"/>
       <c r="G562" s="11"/>
     </row>
-    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3">
         <v>562</v>
       </c>
@@ -6357,7 +6126,7 @@
       <c r="E563" s="5"/>
       <c r="F563" s="5"/>
     </row>
-    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="8">
         <v>563</v>
       </c>
@@ -6368,7 +6137,7 @@
       <c r="F564" s="11"/>
       <c r="G564" s="11"/>
     </row>
-    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3">
         <v>564</v>
       </c>
@@ -6377,7 +6146,7 @@
       <c r="E565" s="5"/>
       <c r="F565" s="5"/>
     </row>
-    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="8">
         <v>565</v>
       </c>
@@ -6388,7 +6157,7 @@
       <c r="F566" s="11"/>
       <c r="G566" s="11"/>
     </row>
-    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3">
         <v>566</v>
       </c>
@@ -6397,7 +6166,7 @@
       <c r="E567" s="5"/>
       <c r="F567" s="5"/>
     </row>
-    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="8">
         <v>567</v>
       </c>
@@ -6408,7 +6177,7 @@
       <c r="F568" s="11"/>
       <c r="G568" s="11"/>
     </row>
-    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="3">
         <v>568</v>
       </c>
@@ -6417,7 +6186,7 @@
       <c r="E569" s="5"/>
       <c r="F569" s="5"/>
     </row>
-    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="8">
         <v>569</v>
       </c>
@@ -6428,7 +6197,7 @@
       <c r="F570" s="11"/>
       <c r="G570" s="11"/>
     </row>
-    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3">
         <v>570</v>
       </c>
@@ -6437,7 +6206,7 @@
       <c r="E571" s="5"/>
       <c r="F571" s="5"/>
     </row>
-    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="8">
         <v>571</v>
       </c>
@@ -6448,7 +6217,7 @@
       <c r="F572" s="11"/>
       <c r="G572" s="11"/>
     </row>
-    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3">
         <v>572</v>
       </c>
@@ -6457,7 +6226,7 @@
       <c r="E573" s="5"/>
       <c r="F573" s="5"/>
     </row>
-    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="8">
         <v>573</v>
       </c>
@@ -6468,7 +6237,7 @@
       <c r="F574" s="11"/>
       <c r="G574" s="11"/>
     </row>
-    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3">
         <v>574</v>
       </c>
@@ -6477,7 +6246,7 @@
       <c r="E575" s="5"/>
       <c r="F575" s="5"/>
     </row>
-    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="8">
         <v>575</v>
       </c>
@@ -6488,7 +6257,7 @@
       <c r="F576" s="11"/>
       <c r="G576" s="11"/>
     </row>
-    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3">
         <v>576</v>
       </c>
@@ -6497,7 +6266,7 @@
       <c r="E577" s="5"/>
       <c r="F577" s="5"/>
     </row>
-    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="8">
         <v>577</v>
       </c>
@@ -6508,7 +6277,7 @@
       <c r="F578" s="11"/>
       <c r="G578" s="11"/>
     </row>
-    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3">
         <v>578</v>
       </c>
@@ -6517,7 +6286,7 @@
       <c r="E579" s="5"/>
       <c r="F579" s="5"/>
     </row>
-    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="8">
         <v>579</v>
       </c>
@@ -6528,7 +6297,7 @@
       <c r="F580" s="11"/>
       <c r="G580" s="11"/>
     </row>
-    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3">
         <v>580</v>
       </c>
@@ -6537,7 +6306,7 @@
       <c r="E581" s="5"/>
       <c r="F581" s="5"/>
     </row>
-    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="8">
         <v>581</v>
       </c>
@@ -6548,7 +6317,7 @@
       <c r="F582" s="11"/>
       <c r="G582" s="11"/>
     </row>
-    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3">
         <v>582</v>
       </c>
@@ -6557,7 +6326,7 @@
       <c r="E583" s="5"/>
       <c r="F583" s="5"/>
     </row>
-    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="8">
         <v>583</v>
       </c>
@@ -6568,7 +6337,7 @@
       <c r="F584" s="11"/>
       <c r="G584" s="11"/>
     </row>
-    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3">
         <v>584</v>
       </c>
@@ -6577,7 +6346,7 @@
       <c r="E585" s="5"/>
       <c r="F585" s="5"/>
     </row>
-    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="8">
         <v>585</v>
       </c>
@@ -6588,7 +6357,7 @@
       <c r="F586" s="11"/>
       <c r="G586" s="11"/>
     </row>
-    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3">
         <v>586</v>
       </c>
@@ -6597,7 +6366,7 @@
       <c r="E587" s="5"/>
       <c r="F587" s="5"/>
     </row>
-    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="8">
         <v>587</v>
       </c>
@@ -6608,7 +6377,7 @@
       <c r="F588" s="11"/>
       <c r="G588" s="11"/>
     </row>
-    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3">
         <v>588</v>
       </c>
@@ -6617,7 +6386,7 @@
       <c r="E589" s="5"/>
       <c r="F589" s="5"/>
     </row>
-    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="8">
         <v>589</v>
       </c>
@@ -6628,7 +6397,7 @@
       <c r="F590" s="11"/>
       <c r="G590" s="11"/>
     </row>
-    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3">
         <v>590</v>
       </c>
@@ -6637,7 +6406,7 @@
       <c r="E591" s="5"/>
       <c r="F591" s="5"/>
     </row>
-    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="8">
         <v>591</v>
       </c>
@@ -6648,7 +6417,7 @@
       <c r="F592" s="11"/>
       <c r="G592" s="11"/>
     </row>
-    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3">
         <v>592</v>
       </c>
@@ -6657,7 +6426,7 @@
       <c r="E593" s="5"/>
       <c r="F593" s="5"/>
     </row>
-    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="8">
         <v>593</v>
       </c>
@@ -6668,7 +6437,7 @@
       <c r="F594" s="11"/>
       <c r="G594" s="11"/>
     </row>
-    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3">
         <v>594</v>
       </c>
@@ -6677,7 +6446,7 @@
       <c r="E595" s="5"/>
       <c r="F595" s="5"/>
     </row>
-    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="8">
         <v>595</v>
       </c>
@@ -6688,7 +6457,7 @@
       <c r="F596" s="11"/>
       <c r="G596" s="11"/>
     </row>
-    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3">
         <v>596</v>
       </c>
@@ -6697,7 +6466,7 @@
       <c r="E597" s="5"/>
       <c r="F597" s="5"/>
     </row>
-    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="8">
         <v>597</v>
       </c>
@@ -6708,7 +6477,7 @@
       <c r="F598" s="11"/>
       <c r="G598" s="11"/>
     </row>
-    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3">
         <v>598</v>
       </c>
@@ -6717,7 +6486,7 @@
       <c r="E599" s="5"/>
       <c r="F599" s="5"/>
     </row>
-    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="8">
         <v>599</v>
       </c>
@@ -6728,7 +6497,7 @@
       <c r="F600" s="11"/>
       <c r="G600" s="11"/>
     </row>
-    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3">
         <v>600</v>
       </c>
@@ -6737,7 +6506,7 @@
       <c r="E601" s="5"/>
       <c r="F601" s="5"/>
     </row>
-    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="8">
         <v>601</v>
       </c>
@@ -6748,7 +6517,7 @@
       <c r="F602" s="11"/>
       <c r="G602" s="11"/>
     </row>
-    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3">
         <v>602</v>
       </c>
@@ -6757,7 +6526,7 @@
       <c r="E603" s="5"/>
       <c r="F603" s="5"/>
     </row>
-    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="8">
         <v>603</v>
       </c>
@@ -6768,7 +6537,7 @@
       <c r="F604" s="11"/>
       <c r="G604" s="11"/>
     </row>
-    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3">
         <v>604</v>
       </c>
@@ -6777,7 +6546,7 @@
       <c r="E605" s="5"/>
       <c r="F605" s="5"/>
     </row>
-    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="8">
         <v>605</v>
       </c>
@@ -6788,7 +6557,7 @@
       <c r="F606" s="11"/>
       <c r="G606" s="11"/>
     </row>
-    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3">
         <v>606</v>
       </c>
@@ -6797,7 +6566,7 @@
       <c r="E607" s="5"/>
       <c r="F607" s="5"/>
     </row>
-    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="8">
         <v>607</v>
       </c>
@@ -6808,7 +6577,7 @@
       <c r="F608" s="11"/>
       <c r="G608" s="11"/>
     </row>
-    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3">
         <v>608</v>
       </c>
@@ -6817,7 +6586,7 @@
       <c r="E609" s="5"/>
       <c r="F609" s="5"/>
     </row>
-    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="8">
         <v>609</v>
       </c>
@@ -6828,7 +6597,7 @@
       <c r="F610" s="11"/>
       <c r="G610" s="11"/>
     </row>
-    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3">
         <v>610</v>
       </c>
@@ -6837,7 +6606,7 @@
       <c r="E611" s="5"/>
       <c r="F611" s="5"/>
     </row>
-    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="8">
         <v>611</v>
       </c>
@@ -6848,7 +6617,7 @@
       <c r="F612" s="11"/>
       <c r="G612" s="11"/>
     </row>
-    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3">
         <v>612</v>
       </c>
@@ -6857,7 +6626,7 @@
       <c r="E613" s="5"/>
       <c r="F613" s="5"/>
     </row>
-    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="8">
         <v>613</v>
       </c>
@@ -6868,7 +6637,7 @@
       <c r="F614" s="11"/>
       <c r="G614" s="11"/>
     </row>
-    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="3">
         <v>614</v>
       </c>
@@ -6877,7 +6646,7 @@
       <c r="E615" s="5"/>
       <c r="F615" s="5"/>
     </row>
-    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="8">
         <v>615</v>
       </c>
@@ -6888,7 +6657,7 @@
       <c r="F616" s="11"/>
       <c r="G616" s="11"/>
     </row>
-    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3">
         <v>616</v>
       </c>
@@ -6897,7 +6666,7 @@
       <c r="E617" s="5"/>
       <c r="F617" s="5"/>
     </row>
-    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="8">
         <v>617</v>
       </c>
@@ -6908,7 +6677,7 @@
       <c r="F618" s="11"/>
       <c r="G618" s="11"/>
     </row>
-    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3">
         <v>618</v>
       </c>
@@ -6917,7 +6686,7 @@
       <c r="E619" s="5"/>
       <c r="F619" s="5"/>
     </row>
-    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="8">
         <v>619</v>
       </c>
@@ -6928,7 +6697,7 @@
       <c r="F620" s="11"/>
       <c r="G620" s="11"/>
     </row>
-    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3">
         <v>620</v>
       </c>
@@ -6937,7 +6706,7 @@
       <c r="E621" s="5"/>
       <c r="F621" s="5"/>
     </row>
-    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="8">
         <v>621</v>
       </c>
@@ -6948,7 +6717,7 @@
       <c r="F622" s="11"/>
       <c r="G622" s="11"/>
     </row>
-    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3">
         <v>622</v>
       </c>
@@ -6957,7 +6726,7 @@
       <c r="E623" s="5"/>
       <c r="F623" s="5"/>
     </row>
-    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="8">
         <v>623</v>
       </c>
@@ -6968,7 +6737,7 @@
       <c r="F624" s="11"/>
       <c r="G624" s="11"/>
     </row>
-    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3">
         <v>624</v>
       </c>
@@ -6977,7 +6746,7 @@
       <c r="E625" s="5"/>
       <c r="F625" s="5"/>
     </row>
-    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="8">
         <v>625</v>
       </c>
@@ -6988,7 +6757,7 @@
       <c r="F626" s="11"/>
       <c r="G626" s="11"/>
     </row>
-    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="3">
         <v>626</v>
       </c>
@@ -6997,7 +6766,7 @@
       <c r="E627" s="5"/>
       <c r="F627" s="5"/>
     </row>
-    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="8">
         <v>627</v>
       </c>
@@ -7008,7 +6777,7 @@
       <c r="F628" s="11"/>
       <c r="G628" s="11"/>
     </row>
-    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="3">
         <v>628</v>
       </c>
@@ -7017,7 +6786,7 @@
       <c r="E629" s="5"/>
       <c r="F629" s="5"/>
     </row>
-    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="8">
         <v>629</v>
       </c>
@@ -7028,7 +6797,7 @@
       <c r="F630" s="11"/>
       <c r="G630" s="11"/>
     </row>
-    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="3">
         <v>630</v>
       </c>
@@ -7037,7 +6806,7 @@
       <c r="E631" s="5"/>
       <c r="F631" s="5"/>
     </row>
-    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="8">
         <v>631</v>
       </c>
@@ -7048,7 +6817,7 @@
       <c r="F632" s="11"/>
       <c r="G632" s="11"/>
     </row>
-    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="3">
         <v>632</v>
       </c>
@@ -7058,7 +6827,7 @@
       <c r="E633" s="5"/>
       <c r="F633" s="5"/>
     </row>
-    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="8">
         <v>633</v>
       </c>
@@ -7069,7 +6838,7 @@
       <c r="F634" s="11"/>
       <c r="G634" s="11"/>
     </row>
-    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="3">
         <v>634</v>
       </c>
@@ -7079,7 +6848,7 @@
       <c r="E635" s="5"/>
       <c r="F635" s="5"/>
     </row>
-    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="8">
         <v>635</v>
       </c>
@@ -7090,7 +6859,7 @@
       <c r="F636" s="11"/>
       <c r="G636" s="11"/>
     </row>
-    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="3">
         <v>636</v>
       </c>
@@ -7100,7 +6869,7 @@
       <c r="E637" s="5"/>
       <c r="F637" s="5"/>
     </row>
-    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="8">
         <v>637</v>
       </c>
@@ -7111,7 +6880,7 @@
       <c r="F638" s="11"/>
       <c r="G638" s="11"/>
     </row>
-    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="3">
         <v>638</v>
       </c>
@@ -7121,7 +6890,7 @@
       <c r="E639" s="5"/>
       <c r="F639" s="5"/>
     </row>
-    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="8">
         <v>639</v>
       </c>
@@ -7132,7 +6901,7 @@
       <c r="F640" s="11"/>
       <c r="G640" s="11"/>
     </row>
-    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="3">
         <v>640</v>
       </c>
@@ -7142,7 +6911,7 @@
       <c r="E641" s="5"/>
       <c r="F641" s="5"/>
     </row>
-    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="8">
         <v>641</v>
       </c>
@@ -7153,7 +6922,7 @@
       <c r="F642" s="11"/>
       <c r="G642" s="11"/>
     </row>
-    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="3">
         <v>642</v>
       </c>
@@ -7163,7 +6932,7 @@
       <c r="E643" s="5"/>
       <c r="F643" s="5"/>
     </row>
-    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="8">
         <v>643</v>
       </c>
@@ -7174,7 +6943,7 @@
       <c r="F644" s="11"/>
       <c r="G644" s="11"/>
     </row>
-    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="3">
         <v>644</v>
       </c>
@@ -7184,7 +6953,7 @@
       <c r="E645" s="5"/>
       <c r="F645" s="5"/>
     </row>
-    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="8">
         <v>645</v>
       </c>
@@ -7195,7 +6964,7 @@
       <c r="F646" s="11"/>
       <c r="G646" s="11"/>
     </row>
-    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="3">
         <v>646</v>
       </c>
@@ -7205,7 +6974,7 @@
       <c r="E647" s="5"/>
       <c r="F647" s="5"/>
     </row>
-    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="8">
         <v>647</v>
       </c>
@@ -7216,7 +6985,7 @@
       <c r="F648" s="11"/>
       <c r="G648" s="11"/>
     </row>
-    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="3">
         <v>648</v>
       </c>
@@ -7226,7 +6995,7 @@
       <c r="E649" s="5"/>
       <c r="F649" s="5"/>
     </row>
-    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="8">
         <v>649</v>
       </c>
@@ -7237,7 +7006,7 @@
       <c r="F650" s="11"/>
       <c r="G650" s="11"/>
     </row>
-    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="3">
         <v>650</v>
       </c>
@@ -7247,7 +7016,7 @@
       <c r="E651" s="5"/>
       <c r="F651" s="5"/>
     </row>
-    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="8">
         <v>651</v>
       </c>
@@ -7258,7 +7027,7 @@
       <c r="F652" s="11"/>
       <c r="G652" s="11"/>
     </row>
-    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="3">
         <v>652</v>
       </c>
@@ -7268,7 +7037,7 @@
       <c r="E653" s="5"/>
       <c r="F653" s="5"/>
     </row>
-    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="8">
         <v>653</v>
       </c>
@@ -7279,7 +7048,7 @@
       <c r="F654" s="11"/>
       <c r="G654" s="11"/>
     </row>
-    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="3">
         <v>654</v>
       </c>
@@ -7289,7 +7058,7 @@
       <c r="E655" s="5"/>
       <c r="F655" s="5"/>
     </row>
-    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="8">
         <v>655</v>
       </c>
@@ -7300,7 +7069,7 @@
       <c r="F656" s="11"/>
       <c r="G656" s="11"/>
     </row>
-    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="3">
         <v>656</v>
       </c>
@@ -7310,7 +7079,7 @@
       <c r="E657" s="5"/>
       <c r="F657" s="5"/>
     </row>
-    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="8">
         <v>657</v>
       </c>
@@ -7321,7 +7090,7 @@
       <c r="F658" s="11"/>
       <c r="G658" s="11"/>
     </row>
-    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="3">
         <v>658</v>
       </c>
@@ -7331,7 +7100,7 @@
       <c r="E659" s="5"/>
       <c r="F659" s="5"/>
     </row>
-    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="8">
         <v>659</v>
       </c>
@@ -7342,7 +7111,7 @@
       <c r="F660" s="11"/>
       <c r="G660" s="11"/>
     </row>
-    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="3">
         <v>660</v>
       </c>
@@ -7352,7 +7121,7 @@
       <c r="E661" s="5"/>
       <c r="F661" s="5"/>
     </row>
-    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="8">
         <v>661</v>
       </c>
@@ -7363,7 +7132,7 @@
       <c r="F662" s="11"/>
       <c r="G662" s="11"/>
     </row>
-    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="3">
         <v>662</v>
       </c>
@@ -7373,7 +7142,7 @@
       <c r="E663" s="5"/>
       <c r="F663" s="5"/>
     </row>
-    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="8">
         <v>663</v>
       </c>
@@ -7384,7 +7153,7 @@
       <c r="F664" s="11"/>
       <c r="G664" s="11"/>
     </row>
-    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="3">
         <v>664</v>
       </c>
@@ -7394,7 +7163,7 @@
       <c r="E665" s="5"/>
       <c r="F665" s="5"/>
     </row>
-    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="8">
         <v>665</v>
       </c>
@@ -7405,7 +7174,7 @@
       <c r="F666" s="11"/>
       <c r="G666" s="11"/>
     </row>
-    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="3">
         <v>666</v>
       </c>
@@ -7415,7 +7184,7 @@
       <c r="E667" s="5"/>
       <c r="F667" s="5"/>
     </row>
-    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="8">
         <v>667</v>
       </c>
@@ -7426,7 +7195,7 @@
       <c r="F668" s="11"/>
       <c r="G668" s="11"/>
     </row>
-    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="3">
         <v>668</v>
       </c>
@@ -7436,7 +7205,7 @@
       <c r="E669" s="5"/>
       <c r="F669" s="5"/>
     </row>
-    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="8">
         <v>669</v>
       </c>
@@ -7447,7 +7216,7 @@
       <c r="F670" s="11"/>
       <c r="G670" s="11"/>
     </row>
-    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="3">
         <v>670</v>
       </c>
@@ -7457,7 +7226,7 @@
       <c r="E671" s="5"/>
       <c r="F671" s="5"/>
     </row>
-    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="8">
         <v>671</v>
       </c>
@@ -7468,7 +7237,7 @@
       <c r="F672" s="11"/>
       <c r="G672" s="11"/>
     </row>
-    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="3">
         <v>672</v>
       </c>
@@ -7478,7 +7247,7 @@
       <c r="E673" s="5"/>
       <c r="F673" s="5"/>
     </row>
-    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="8">
         <v>673</v>
       </c>
@@ -7489,7 +7258,7 @@
       <c r="F674" s="11"/>
       <c r="G674" s="11"/>
     </row>
-    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="3">
         <v>674</v>
       </c>
@@ -7499,7 +7268,7 @@
       <c r="E675" s="5"/>
       <c r="F675" s="5"/>
     </row>
-    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="8">
         <v>675</v>
       </c>
@@ -7510,7 +7279,7 @@
       <c r="F676" s="11"/>
       <c r="G676" s="11"/>
     </row>
-    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="3">
         <v>676</v>
       </c>
@@ -7520,7 +7289,7 @@
       <c r="E677" s="5"/>
       <c r="F677" s="5"/>
     </row>
-    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="8">
         <v>677</v>
       </c>
@@ -7531,7 +7300,7 @@
       <c r="F678" s="11"/>
       <c r="G678" s="11"/>
     </row>
-    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="3">
         <v>678</v>
       </c>
@@ -7541,7 +7310,7 @@
       <c r="E679" s="5"/>
       <c r="F679" s="5"/>
     </row>
-    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="8">
         <v>679</v>
       </c>
@@ -7552,7 +7321,7 @@
       <c r="F680" s="11"/>
       <c r="G680" s="11"/>
     </row>
-    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="3">
         <v>680</v>
       </c>
@@ -7561,7 +7330,7 @@
       <c r="E681" s="5"/>
       <c r="F681" s="5"/>
     </row>
-    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="8">
         <v>681</v>
       </c>
@@ -7572,7 +7341,7 @@
       <c r="F682" s="11"/>
       <c r="G682" s="11"/>
     </row>
-    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="3">
         <v>682</v>
       </c>
@@ -7581,7 +7350,7 @@
       <c r="E683" s="5"/>
       <c r="F683" s="5"/>
     </row>
-    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="8">
         <v>683</v>
       </c>
@@ -7592,7 +7361,7 @@
       <c r="F684" s="11"/>
       <c r="G684" s="11"/>
     </row>
-    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="3">
         <v>684</v>
       </c>
@@ -7601,7 +7370,7 @@
       <c r="E685" s="5"/>
       <c r="F685" s="5"/>
     </row>
-    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="8">
         <v>685</v>
       </c>
@@ -7612,7 +7381,7 @@
       <c r="F686" s="11"/>
       <c r="G686" s="11"/>
     </row>
-    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="3">
         <v>686</v>
       </c>
@@ -7621,7 +7390,7 @@
       <c r="E687" s="5"/>
       <c r="F687" s="5"/>
     </row>
-    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="8">
         <v>687</v>
       </c>
@@ -7632,7 +7401,7 @@
       <c r="F688" s="11"/>
       <c r="G688" s="11"/>
     </row>
-    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="3">
         <v>688</v>
       </c>
@@ -7641,7 +7410,7 @@
       <c r="E689" s="5"/>
       <c r="F689" s="5"/>
     </row>
-    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="8">
         <v>689</v>
       </c>
@@ -7652,7 +7421,7 @@
       <c r="F690" s="11"/>
       <c r="G690" s="11"/>
     </row>
-    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="3">
         <v>690</v>
       </c>
@@ -7661,7 +7430,7 @@
       <c r="E691" s="5"/>
       <c r="F691" s="5"/>
     </row>
-    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="8">
         <v>691</v>
       </c>
@@ -7672,7 +7441,7 @@
       <c r="F692" s="11"/>
       <c r="G692" s="11"/>
     </row>
-    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="3">
         <v>692</v>
       </c>
@@ -7681,7 +7450,7 @@
       <c r="E693" s="5"/>
       <c r="F693" s="5"/>
     </row>
-    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="8">
         <v>693</v>
       </c>
@@ -7692,7 +7461,7 @@
       <c r="F694" s="11"/>
       <c r="G694" s="11"/>
     </row>
-    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="3">
         <v>694</v>
       </c>
@@ -7701,7 +7470,7 @@
       <c r="E695" s="5"/>
       <c r="F695" s="5"/>
     </row>
-    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="8">
         <v>695</v>
       </c>
@@ -7712,7 +7481,7 @@
       <c r="F696" s="11"/>
       <c r="G696" s="11"/>
     </row>
-    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="3">
         <v>696</v>
       </c>
@@ -7721,7 +7490,7 @@
       <c r="E697" s="5"/>
       <c r="F697" s="5"/>
     </row>
-    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="8">
         <v>697</v>
       </c>
@@ -7732,7 +7501,7 @@
       <c r="F698" s="11"/>
       <c r="G698" s="11"/>
     </row>
-    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="3">
         <v>698</v>
       </c>
@@ -7741,7 +7510,7 @@
       <c r="E699" s="5"/>
       <c r="F699" s="5"/>
     </row>
-    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="8">
         <v>699</v>
       </c>
@@ -7752,7 +7521,7 @@
       <c r="F700" s="11"/>
       <c r="G700" s="11"/>
     </row>
-    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="3">
         <v>700</v>
       </c>
@@ -7761,7 +7530,7 @@
       <c r="E701" s="5"/>
       <c r="F701" s="5"/>
     </row>
-    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="8">
         <v>701</v>
       </c>
@@ -7772,7 +7541,7 @@
       <c r="F702" s="11"/>
       <c r="G702" s="11"/>
     </row>
-    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="3">
         <v>702</v>
       </c>
@@ -7781,7 +7550,7 @@
       <c r="E703" s="5"/>
       <c r="F703" s="5"/>
     </row>
-    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="8">
         <v>703</v>
       </c>
@@ -7792,7 +7561,7 @@
       <c r="F704" s="11"/>
       <c r="G704" s="11"/>
     </row>
-    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="3">
         <v>704</v>
       </c>
@@ -7801,7 +7570,7 @@
       <c r="E705" s="5"/>
       <c r="F705" s="5"/>
     </row>
-    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="8">
         <v>705</v>
       </c>
@@ -7812,7 +7581,7 @@
       <c r="F706" s="11"/>
       <c r="G706" s="11"/>
     </row>
-    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="3">
         <v>706</v>
       </c>
@@ -7821,7 +7590,7 @@
       <c r="E707" s="5"/>
       <c r="F707" s="5"/>
     </row>
-    <row r="708" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="8">
         <v>707</v>
       </c>
@@ -7832,7 +7601,7 @@
       <c r="F708" s="11"/>
       <c r="G708" s="11"/>
     </row>
-    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="3">
         <v>708</v>
       </c>
@@ -7841,7 +7610,7 @@
       <c r="E709" s="5"/>
       <c r="F709" s="5"/>
     </row>
-    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="8">
         <v>709</v>
       </c>
@@ -7852,7 +7621,7 @@
       <c r="F710" s="11"/>
       <c r="G710" s="11"/>
     </row>
-    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="3">
         <v>710</v>
       </c>
@@ -7861,7 +7630,7 @@
       <c r="E711" s="5"/>
       <c r="F711" s="5"/>
     </row>
-    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="8">
         <v>711</v>
       </c>
@@ -7872,7 +7641,7 @@
       <c r="F712" s="11"/>
       <c r="G712" s="11"/>
     </row>
-    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="3">
         <v>712</v>
       </c>
@@ -7881,7 +7650,7 @@
       <c r="E713" s="5"/>
       <c r="F713" s="5"/>
     </row>
-    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="8">
         <v>713</v>
       </c>
@@ -7892,7 +7661,7 @@
       <c r="F714" s="11"/>
       <c r="G714" s="11"/>
     </row>
-    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="3">
         <v>714</v>
       </c>
@@ -7901,7 +7670,7 @@
       <c r="E715" s="5"/>
       <c r="F715" s="5"/>
     </row>
-    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="8">
         <v>715</v>
       </c>
@@ -7912,7 +7681,7 @@
       <c r="F716" s="11"/>
       <c r="G716" s="11"/>
     </row>
-    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="3">
         <v>716</v>
       </c>
@@ -7921,7 +7690,7 @@
       <c r="E717" s="5"/>
       <c r="F717" s="5"/>
     </row>
-    <row r="718" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="8">
         <v>717</v>
       </c>
@@ -7932,7 +7701,7 @@
       <c r="F718" s="11"/>
       <c r="G718" s="11"/>
     </row>
-    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="3">
         <v>718</v>
       </c>
@@ -7941,7 +7710,7 @@
       <c r="E719" s="5"/>
       <c r="F719" s="5"/>
     </row>
-    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="8">
         <v>719</v>
       </c>
@@ -7952,7 +7721,7 @@
       <c r="F720" s="11"/>
       <c r="G720" s="11"/>
     </row>
-    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="3">
         <v>720</v>
       </c>
@@ -7961,7 +7730,7 @@
       <c r="E721" s="5"/>
       <c r="F721" s="5"/>
     </row>
-    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="8">
         <v>721</v>
       </c>
@@ -7972,7 +7741,7 @@
       <c r="F722" s="11"/>
       <c r="G722" s="11"/>
     </row>
-    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="3">
         <v>722</v>
       </c>
@@ -7981,7 +7750,7 @@
       <c r="E723" s="5"/>
       <c r="F723" s="5"/>
     </row>
-    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="8">
         <v>723</v>
       </c>
@@ -7992,7 +7761,7 @@
       <c r="F724" s="11"/>
       <c r="G724" s="11"/>
     </row>
-    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="3">
         <v>724</v>
       </c>
@@ -8001,7 +7770,7 @@
       <c r="E725" s="5"/>
       <c r="F725" s="5"/>
     </row>
-    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="8">
         <v>725</v>
       </c>
@@ -8012,7 +7781,7 @@
       <c r="F726" s="11"/>
       <c r="G726" s="11"/>
     </row>
-    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="3">
         <v>726</v>
       </c>
@@ -8021,7 +7790,7 @@
       <c r="E727" s="5"/>
       <c r="F727" s="5"/>
     </row>
-    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="8">
         <v>727</v>
       </c>
@@ -8032,7 +7801,7 @@
       <c r="F728" s="11"/>
       <c r="G728" s="11"/>
     </row>
-    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="3">
         <v>728</v>
       </c>
@@ -8041,7 +7810,7 @@
       <c r="E729" s="5"/>
       <c r="F729" s="5"/>
     </row>
-    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="8">
         <v>729</v>
       </c>
@@ -8052,7 +7821,7 @@
       <c r="F730" s="11"/>
       <c r="G730" s="11"/>
     </row>
-    <row r="731" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="3">
         <v>730</v>
       </c>
@@ -8061,7 +7830,7 @@
       <c r="E731" s="5"/>
       <c r="F731" s="5"/>
     </row>
-    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="8">
         <v>731</v>
       </c>
@@ -8072,7 +7841,7 @@
       <c r="F732" s="11"/>
       <c r="G732" s="11"/>
     </row>
-    <row r="733" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="3">
         <v>732</v>
       </c>
@@ -8081,7 +7850,7 @@
       <c r="E733" s="5"/>
       <c r="F733" s="5"/>
     </row>
-    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="8">
         <v>733</v>
       </c>
@@ -8092,7 +7861,7 @@
       <c r="F734" s="11"/>
       <c r="G734" s="11"/>
     </row>
-    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="3">
         <v>734</v>
       </c>
@@ -8101,7 +7870,7 @@
       <c r="E735" s="5"/>
       <c r="F735" s="5"/>
     </row>
-    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="8">
         <v>735</v>
       </c>
@@ -8112,7 +7881,7 @@
       <c r="F736" s="11"/>
       <c r="G736" s="11"/>
     </row>
-    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="3">
         <v>736</v>
       </c>
@@ -8121,7 +7890,7 @@
       <c r="E737" s="5"/>
       <c r="F737" s="5"/>
     </row>
-    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="8">
         <v>737</v>
       </c>
@@ -8132,7 +7901,7 @@
       <c r="F738" s="11"/>
       <c r="G738" s="11"/>
     </row>
-    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="3">
         <v>738</v>
       </c>
@@ -8141,7 +7910,7 @@
       <c r="E739" s="5"/>
       <c r="F739" s="5"/>
     </row>
-    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="8">
         <v>739</v>
       </c>
@@ -8152,7 +7921,7 @@
       <c r="F740" s="11"/>
       <c r="G740" s="11"/>
     </row>
-    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="3">
         <v>740</v>
       </c>
@@ -8161,7 +7930,7 @@
       <c r="E741" s="5"/>
       <c r="F741" s="5"/>
     </row>
-    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="8">
         <v>741</v>
       </c>
@@ -8172,7 +7941,7 @@
       <c r="F742" s="11"/>
       <c r="G742" s="11"/>
     </row>
-    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="3">
         <v>742</v>
       </c>
@@ -8181,7 +7950,7 @@
       <c r="E743" s="5"/>
       <c r="F743" s="5"/>
     </row>
-    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="8">
         <v>743</v>
       </c>
@@ -8192,7 +7961,7 @@
       <c r="F744" s="11"/>
       <c r="G744" s="11"/>
     </row>
-    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="3">
         <v>744</v>
       </c>
@@ -8201,7 +7970,7 @@
       <c r="E745" s="5"/>
       <c r="F745" s="5"/>
     </row>
-    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="8">
         <v>745</v>
       </c>
@@ -8212,7 +7981,7 @@
       <c r="F746" s="11"/>
       <c r="G746" s="11"/>
     </row>
-    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="3">
         <v>746</v>
       </c>
@@ -8221,7 +7990,7 @@
       <c r="E747" s="5"/>
       <c r="F747" s="5"/>
     </row>
-    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="8">
         <v>747</v>
       </c>
@@ -8232,7 +8001,7 @@
       <c r="F748" s="11"/>
       <c r="G748" s="11"/>
     </row>
-    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="3">
         <v>748</v>
       </c>
@@ -8241,7 +8010,7 @@
       <c r="E749" s="5"/>
       <c r="F749" s="5"/>
     </row>
-    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="8">
         <v>749</v>
       </c>
@@ -8252,7 +8021,7 @@
       <c r="F750" s="11"/>
       <c r="G750" s="11"/>
     </row>
-    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="3">
         <v>750</v>
       </c>
@@ -8261,7 +8030,7 @@
       <c r="E751" s="5"/>
       <c r="F751" s="5"/>
     </row>
-    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="8">
         <v>751</v>
       </c>
@@ -8272,7 +8041,7 @@
       <c r="F752" s="11"/>
       <c r="G752" s="11"/>
     </row>
-    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="3">
         <v>752</v>
       </c>
@@ -8281,7 +8050,7 @@
       <c r="E753" s="5"/>
       <c r="F753" s="5"/>
     </row>
-    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="8">
         <v>753</v>
       </c>
@@ -8292,7 +8061,7 @@
       <c r="F754" s="11"/>
       <c r="G754" s="11"/>
     </row>
-    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="3">
         <v>754</v>
       </c>
@@ -8301,7 +8070,7 @@
       <c r="E755" s="5"/>
       <c r="F755" s="5"/>
     </row>
-    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="8">
         <v>755</v>
       </c>
@@ -8312,7 +8081,7 @@
       <c r="F756" s="11"/>
       <c r="G756" s="11"/>
     </row>
-    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="3">
         <v>756</v>
       </c>
@@ -8321,7 +8090,7 @@
       <c r="E757" s="5"/>
       <c r="F757" s="5"/>
     </row>
-    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="8">
         <v>757</v>
       </c>
@@ -8332,7 +8101,7 @@
       <c r="F758" s="11"/>
       <c r="G758" s="11"/>
     </row>
-    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="3">
         <v>758</v>
       </c>
@@ -8341,7 +8110,7 @@
       <c r="E759" s="5"/>
       <c r="F759" s="5"/>
     </row>
-    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="8">
         <v>759</v>
       </c>
@@ -8352,7 +8121,7 @@
       <c r="F760" s="11"/>
       <c r="G760" s="11"/>
     </row>
-    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="3">
         <v>760</v>
       </c>
@@ -8361,7 +8130,7 @@
       <c r="E761" s="5"/>
       <c r="F761" s="5"/>
     </row>
-    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="8">
         <v>761</v>
       </c>
@@ -8372,7 +8141,7 @@
       <c r="F762" s="11"/>
       <c r="G762" s="11"/>
     </row>
-    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="3">
         <v>762</v>
       </c>
@@ -8381,7 +8150,7 @@
       <c r="E763" s="5"/>
       <c r="F763" s="5"/>
     </row>
-    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="8">
         <v>763</v>
       </c>
@@ -8392,7 +8161,7 @@
       <c r="F764" s="11"/>
       <c r="G764" s="11"/>
     </row>
-    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="3">
         <v>764</v>
       </c>
@@ -8401,7 +8170,7 @@
       <c r="E765" s="5"/>
       <c r="F765" s="5"/>
     </row>
-    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="8">
         <v>765</v>
       </c>
@@ -8412,7 +8181,7 @@
       <c r="F766" s="11"/>
       <c r="G766" s="11"/>
     </row>
-    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="3">
         <v>766</v>
       </c>
@@ -8421,7 +8190,7 @@
       <c r="E767" s="5"/>
       <c r="F767" s="5"/>
     </row>
-    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="8">
         <v>767</v>
       </c>
@@ -8432,7 +8201,7 @@
       <c r="F768" s="11"/>
       <c r="G768" s="11"/>
     </row>
-    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="3">
         <v>768</v>
       </c>
@@ -8441,7 +8210,7 @@
       <c r="E769" s="5"/>
       <c r="F769" s="5"/>
     </row>
-    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="8">
         <v>769</v>
       </c>
@@ -8452,7 +8221,7 @@
       <c r="F770" s="11"/>
       <c r="G770" s="11"/>
     </row>
-    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="3">
         <v>770</v>
       </c>
@@ -8461,7 +8230,7 @@
       <c r="E771" s="5"/>
       <c r="F771" s="5"/>
     </row>
-    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="8">
         <v>771</v>
       </c>
@@ -8472,7 +8241,7 @@
       <c r="F772" s="11"/>
       <c r="G772" s="11"/>
     </row>
-    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="3">
         <v>772</v>
       </c>
@@ -8481,7 +8250,7 @@
       <c r="E773" s="5"/>
       <c r="F773" s="5"/>
     </row>
-    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="8">
         <v>773</v>
       </c>
@@ -8492,7 +8261,7 @@
       <c r="F774" s="11"/>
       <c r="G774" s="11"/>
     </row>
-    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="3">
         <v>774</v>
       </c>
@@ -8501,7 +8270,7 @@
       <c r="E775" s="5"/>
       <c r="F775" s="5"/>
     </row>
-    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="8">
         <v>775</v>
       </c>
@@ -8512,7 +8281,7 @@
       <c r="F776" s="11"/>
       <c r="G776" s="11"/>
     </row>
-    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="3">
         <v>776</v>
       </c>
@@ -8521,7 +8290,7 @@
       <c r="E777" s="5"/>
       <c r="F777" s="5"/>
     </row>
-    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="8">
         <v>777</v>
       </c>
@@ -8532,7 +8301,7 @@
       <c r="F778" s="11"/>
       <c r="G778" s="11"/>
     </row>
-    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="3">
         <v>778</v>
       </c>
@@ -8541,7 +8310,7 @@
       <c r="E779" s="5"/>
       <c r="F779" s="5"/>
     </row>
-    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="8">
         <v>779</v>
       </c>
@@ -8552,7 +8321,7 @@
       <c r="F780" s="11"/>
       <c r="G780" s="11"/>
     </row>
-    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="3">
         <v>780</v>
       </c>
@@ -8561,7 +8330,7 @@
       <c r="E781" s="5"/>
       <c r="F781" s="5"/>
     </row>
-    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="8">
         <v>781</v>
       </c>
@@ -8572,7 +8341,7 @@
       <c r="F782" s="11"/>
       <c r="G782" s="11"/>
     </row>
-    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="3">
         <v>782</v>
       </c>
@@ -8581,7 +8350,7 @@
       <c r="E783" s="5"/>
       <c r="F783" s="5"/>
     </row>
-    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="8">
         <v>783</v>
       </c>
@@ -8592,7 +8361,7 @@
       <c r="F784" s="11"/>
       <c r="G784" s="11"/>
     </row>
-    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="3">
         <v>784</v>
       </c>
@@ -8601,7 +8370,7 @@
       <c r="E785" s="5"/>
       <c r="F785" s="5"/>
     </row>
-    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="8">
         <v>785</v>
       </c>
@@ -8612,7 +8381,7 @@
       <c r="F786" s="11"/>
       <c r="G786" s="11"/>
     </row>
-    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="3">
         <v>786</v>
       </c>
@@ -8621,7 +8390,7 @@
       <c r="E787" s="5"/>
       <c r="F787" s="5"/>
     </row>
-    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="8">
         <v>787</v>
       </c>
@@ -8632,7 +8401,7 @@
       <c r="F788" s="11"/>
       <c r="G788" s="11"/>
     </row>
-    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="3">
         <v>788</v>
       </c>
@@ -8641,7 +8410,7 @@
       <c r="E789" s="5"/>
       <c r="F789" s="5"/>
     </row>
-    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="8">
         <v>789</v>
       </c>
@@ -8652,7 +8421,7 @@
       <c r="F790" s="11"/>
       <c r="G790" s="11"/>
     </row>
-    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="3">
         <v>790</v>
       </c>
@@ -8661,7 +8430,7 @@
       <c r="E791" s="5"/>
       <c r="F791" s="5"/>
     </row>
-    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="8">
         <v>791</v>
       </c>
@@ -8672,7 +8441,7 @@
       <c r="F792" s="11"/>
       <c r="G792" s="11"/>
     </row>
-    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="3">
         <v>792</v>
       </c>
@@ -8681,7 +8450,7 @@
       <c r="E793" s="5"/>
       <c r="F793" s="5"/>
     </row>
-    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="8">
         <v>793</v>
       </c>
@@ -8692,7 +8461,7 @@
       <c r="F794" s="11"/>
       <c r="G794" s="11"/>
     </row>
-    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="3">
         <v>794</v>
       </c>
@@ -8701,7 +8470,7 @@
       <c r="E795" s="5"/>
       <c r="F795" s="5"/>
     </row>
-    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="8">
         <v>795</v>
       </c>
@@ -8712,7 +8481,7 @@
       <c r="F796" s="11"/>
       <c r="G796" s="11"/>
     </row>
-    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="3">
         <v>796</v>
       </c>
@@ -8721,7 +8490,7 @@
       <c r="E797" s="5"/>
       <c r="F797" s="5"/>
     </row>
-    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="8">
         <v>797</v>
       </c>
@@ -8732,7 +8501,7 @@
       <c r="F798" s="11"/>
       <c r="G798" s="11"/>
     </row>
-    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="3">
         <v>798</v>
       </c>
@@ -8741,7 +8510,7 @@
       <c r="E799" s="5"/>
       <c r="F799" s="5"/>
     </row>
-    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="8">
         <v>799</v>
       </c>
@@ -8752,7 +8521,7 @@
       <c r="F800" s="11"/>
       <c r="G800" s="11"/>
     </row>
-    <row r="801" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="3">
         <v>800</v>
       </c>
@@ -8761,7 +8530,7 @@
       <c r="E801" s="5"/>
       <c r="F801" s="5"/>
     </row>
-    <row r="802" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="8">
         <v>801</v>
       </c>
@@ -8772,7 +8541,7 @@
       <c r="F802" s="11"/>
       <c r="G802" s="11"/>
     </row>
-    <row r="803" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="3">
         <v>802</v>
       </c>
@@ -8781,7 +8550,7 @@
       <c r="E803" s="5"/>
       <c r="F803" s="5"/>
     </row>
-    <row r="804" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="8">
         <v>803</v>
       </c>
@@ -8792,7 +8561,7 @@
       <c r="F804" s="11"/>
       <c r="G804" s="11"/>
     </row>
-    <row r="805" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="3">
         <v>804</v>
       </c>
@@ -8801,7 +8570,7 @@
       <c r="E805" s="5"/>
       <c r="F805" s="5"/>
     </row>
-    <row r="806" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="8">
         <v>805</v>
       </c>
@@ -8812,7 +8581,7 @@
       <c r="F806" s="11"/>
       <c r="G806" s="11"/>
     </row>
-    <row r="807" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="3">
         <v>806</v>
       </c>
@@ -8821,7 +8590,7 @@
       <c r="E807" s="5"/>
       <c r="F807" s="5"/>
     </row>
-    <row r="808" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="8">
         <v>807</v>
       </c>
@@ -8832,7 +8601,7 @@
       <c r="F808" s="11"/>
       <c r="G808" s="11"/>
     </row>
-    <row r="809" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="3">
         <v>808</v>
       </c>
@@ -8841,7 +8610,7 @@
       <c r="E809" s="5"/>
       <c r="F809" s="5"/>
     </row>
-    <row r="810" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="8">
         <v>809</v>
       </c>
@@ -8852,7 +8621,7 @@
       <c r="F810" s="11"/>
       <c r="G810" s="11"/>
     </row>
-    <row r="811" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="3">
         <v>810</v>
       </c>
@@ -8861,7 +8630,7 @@
       <c r="E811" s="5"/>
       <c r="F811" s="5"/>
     </row>
-    <row r="812" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="8">
         <v>811</v>
       </c>
@@ -8872,7 +8641,7 @@
       <c r="F812" s="11"/>
       <c r="G812" s="11"/>
     </row>
-    <row r="813" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="3">
         <v>812</v>
       </c>
@@ -8881,7 +8650,7 @@
       <c r="E813" s="5"/>
       <c r="F813" s="5"/>
     </row>
-    <row r="814" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="8">
         <v>813</v>
       </c>
@@ -8892,7 +8661,7 @@
       <c r="F814" s="11"/>
       <c r="G814" s="11"/>
     </row>
-    <row r="815" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="3">
         <v>814</v>
       </c>
@@ -8901,7 +8670,7 @@
       <c r="E815" s="5"/>
       <c r="F815" s="5"/>
     </row>
-    <row r="816" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="8">
         <v>815</v>
       </c>
@@ -8912,7 +8681,7 @@
       <c r="F816" s="11"/>
       <c r="G816" s="11"/>
     </row>
-    <row r="817" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="3">
         <v>816</v>
       </c>
@@ -8921,7 +8690,7 @@
       <c r="E817" s="5"/>
       <c r="F817" s="5"/>
     </row>
-    <row r="818" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="8">
         <v>817</v>
       </c>
@@ -8932,7 +8701,7 @@
       <c r="F818" s="11"/>
       <c r="G818" s="11"/>
     </row>
-    <row r="819" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="3">
         <v>818</v>
       </c>
@@ -8941,7 +8710,7 @@
       <c r="E819" s="5"/>
       <c r="F819" s="5"/>
     </row>
-    <row r="820" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="8">
         <v>819</v>
       </c>
@@ -8952,7 +8721,7 @@
       <c r="F820" s="11"/>
       <c r="G820" s="11"/>
     </row>
-    <row r="821" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="3">
         <v>820</v>
       </c>
@@ -8961,7 +8730,7 @@
       <c r="E821" s="5"/>
       <c r="F821" s="5"/>
     </row>
-    <row r="822" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="8">
         <v>821</v>
       </c>
@@ -8972,7 +8741,7 @@
       <c r="F822" s="11"/>
       <c r="G822" s="11"/>
     </row>
-    <row r="823" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="3">
         <v>822</v>
       </c>
@@ -8981,7 +8750,7 @@
       <c r="E823" s="5"/>
       <c r="F823" s="5"/>
     </row>
-    <row r="824" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="8">
         <v>823</v>
       </c>
@@ -8992,7 +8761,7 @@
       <c r="F824" s="11"/>
       <c r="G824" s="11"/>
     </row>
-    <row r="825" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="3">
         <v>824</v>
       </c>
@@ -9001,7 +8770,7 @@
       <c r="E825" s="5"/>
       <c r="F825" s="5"/>
     </row>
-    <row r="826" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="8">
         <v>825</v>
       </c>
@@ -9012,7 +8781,7 @@
       <c r="F826" s="11"/>
       <c r="G826" s="11"/>
     </row>
-    <row r="827" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="3">
         <v>826</v>
       </c>
@@ -9021,7 +8790,7 @@
       <c r="E827" s="5"/>
       <c r="F827" s="5"/>
     </row>
-    <row r="828" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="8">
         <v>827</v>
       </c>
@@ -9032,7 +8801,7 @@
       <c r="F828" s="11"/>
       <c r="G828" s="11"/>
     </row>
-    <row r="829" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="3">
         <v>828</v>
       </c>
@@ -9041,7 +8810,7 @@
       <c r="E829" s="5"/>
       <c r="F829" s="5"/>
     </row>
-    <row r="830" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="8">
         <v>829</v>
       </c>
@@ -9052,7 +8821,7 @@
       <c r="F830" s="11"/>
       <c r="G830" s="11"/>
     </row>
-    <row r="831" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="3">
         <v>830</v>
       </c>
@@ -9061,7 +8830,7 @@
       <c r="E831" s="5"/>
       <c r="F831" s="5"/>
     </row>
-    <row r="832" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="8">
         <v>831</v>
       </c>
@@ -9072,7 +8841,7 @@
       <c r="F832" s="11"/>
       <c r="G832" s="11"/>
     </row>
-    <row r="833" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="3">
         <v>832</v>
       </c>
@@ -9081,7 +8850,7 @@
       <c r="E833" s="5"/>
       <c r="F833" s="5"/>
     </row>
-    <row r="834" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="8">
         <v>833</v>
       </c>
@@ -9092,7 +8861,7 @@
       <c r="F834" s="11"/>
       <c r="G834" s="11"/>
     </row>
-    <row r="835" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="3">
         <v>834</v>
       </c>
@@ -9101,7 +8870,7 @@
       <c r="E835" s="5"/>
       <c r="F835" s="5"/>
     </row>
-    <row r="836" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="8">
         <v>835</v>
       </c>
@@ -9112,7 +8881,7 @@
       <c r="F836" s="11"/>
       <c r="G836" s="11"/>
     </row>
-    <row r="837" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="3">
         <v>836</v>
       </c>
@@ -9121,7 +8890,7 @@
       <c r="E837" s="5"/>
       <c r="F837" s="5"/>
     </row>
-    <row r="838" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="8">
         <v>837</v>
       </c>
@@ -9132,7 +8901,7 @@
       <c r="F838" s="11"/>
       <c r="G838" s="11"/>
     </row>
-    <row r="839" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="3">
         <v>838</v>
       </c>
@@ -9141,7 +8910,7 @@
       <c r="E839" s="5"/>
       <c r="F839" s="5"/>
     </row>
-    <row r="840" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="8">
         <v>839</v>
       </c>
@@ -9152,7 +8921,7 @@
       <c r="F840" s="11"/>
       <c r="G840" s="11"/>
     </row>
-    <row r="841" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="3">
         <v>840</v>
       </c>
@@ -9161,7 +8930,7 @@
       <c r="E841" s="5"/>
       <c r="F841" s="5"/>
     </row>
-    <row r="842" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="8">
         <v>841</v>
       </c>
@@ -9172,7 +8941,7 @@
       <c r="F842" s="11"/>
       <c r="G842" s="11"/>
     </row>
-    <row r="843" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="3">
         <v>842</v>
       </c>
@@ -9182,7 +8951,7 @@
       <c r="E843" s="5"/>
       <c r="F843" s="5"/>
     </row>
-    <row r="844" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="8">
         <v>843</v>
       </c>
@@ -9193,7 +8962,7 @@
       <c r="F844" s="11"/>
       <c r="G844" s="11"/>
     </row>
-    <row r="845" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="3">
         <v>844</v>
       </c>
@@ -9203,7 +8972,7 @@
       <c r="E845" s="5"/>
       <c r="F845" s="5"/>
     </row>
-    <row r="846" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="8">
         <v>845</v>
       </c>
@@ -9214,7 +8983,7 @@
       <c r="F846" s="11"/>
       <c r="G846" s="11"/>
     </row>
-    <row r="847" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="3">
         <v>846</v>
       </c>
@@ -9224,7 +8993,7 @@
       <c r="E847" s="5"/>
       <c r="F847" s="5"/>
     </row>
-    <row r="848" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="8">
         <v>847</v>
       </c>
@@ -9235,7 +9004,7 @@
       <c r="F848" s="11"/>
       <c r="G848" s="11"/>
     </row>
-    <row r="849" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="3">
         <v>848</v>
       </c>
@@ -9245,7 +9014,7 @@
       <c r="E849" s="5"/>
       <c r="F849" s="5"/>
     </row>
-    <row r="850" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="8">
         <v>849</v>
       </c>
@@ -9256,7 +9025,7 @@
       <c r="F850" s="11"/>
       <c r="G850" s="11"/>
     </row>
-    <row r="851" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="3">
         <v>850</v>
       </c>
@@ -9266,7 +9035,7 @@
       <c r="E851" s="5"/>
       <c r="F851" s="5"/>
     </row>
-    <row r="852" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="8">
         <v>851</v>
       </c>
@@ -9277,7 +9046,7 @@
       <c r="F852" s="11"/>
       <c r="G852" s="11"/>
     </row>
-    <row r="853" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="3">
         <v>852</v>
       </c>
@@ -9287,7 +9056,7 @@
       <c r="E853" s="5"/>
       <c r="F853" s="5"/>
     </row>
-    <row r="854" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="8">
         <v>853</v>
       </c>
@@ -9298,7 +9067,7 @@
       <c r="F854" s="11"/>
       <c r="G854" s="11"/>
     </row>
-    <row r="855" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="3">
         <v>854</v>
       </c>
@@ -9308,7 +9077,7 @@
       <c r="E855" s="5"/>
       <c r="F855" s="5"/>
     </row>
-    <row r="856" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="8">
         <v>855</v>
       </c>
@@ -9319,7 +9088,7 @@
       <c r="F856" s="11"/>
       <c r="G856" s="11"/>
     </row>
-    <row r="857" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="3">
         <v>856</v>
       </c>
@@ -9329,7 +9098,7 @@
       <c r="E857" s="5"/>
       <c r="F857" s="5"/>
     </row>
-    <row r="858" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="8">
         <v>857</v>
       </c>
@@ -9340,7 +9109,7 @@
       <c r="F858" s="11"/>
       <c r="G858" s="11"/>
     </row>
-    <row r="859" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="3">
         <v>858</v>
       </c>
@@ -9350,7 +9119,7 @@
       <c r="E859" s="5"/>
       <c r="F859" s="5"/>
     </row>
-    <row r="860" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="8">
         <v>859</v>
       </c>
@@ -9361,7 +9130,7 @@
       <c r="F860" s="11"/>
       <c r="G860" s="11"/>
     </row>
-    <row r="861" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="3">
         <v>860</v>
       </c>
@@ -9371,7 +9140,7 @@
       <c r="E861" s="5"/>
       <c r="F861" s="5"/>
     </row>
-    <row r="862" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="8">
         <v>861</v>
       </c>
@@ -9382,7 +9151,7 @@
       <c r="F862" s="11"/>
       <c r="G862" s="11"/>
     </row>
-    <row r="863" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="3">
         <v>862</v>
       </c>
@@ -9392,7 +9161,7 @@
       <c r="E863" s="5"/>
       <c r="F863" s="5"/>
     </row>
-    <row r="864" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="8">
         <v>863</v>
       </c>
@@ -9403,7 +9172,7 @@
       <c r="F864" s="11"/>
       <c r="G864" s="11"/>
     </row>
-    <row r="865" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="3">
         <v>864</v>
       </c>
@@ -9413,7 +9182,7 @@
       <c r="E865" s="5"/>
       <c r="F865" s="5"/>
     </row>
-    <row r="866" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="8">
         <v>865</v>
       </c>
@@ -9424,7 +9193,7 @@
       <c r="F866" s="11"/>
       <c r="G866" s="11"/>
     </row>
-    <row r="867" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="3">
         <v>866</v>
       </c>
@@ -9434,7 +9203,7 @@
       <c r="E867" s="5"/>
       <c r="F867" s="5"/>
     </row>
-    <row r="868" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="8">
         <v>867</v>
       </c>
@@ -9445,7 +9214,7 @@
       <c r="F868" s="11"/>
       <c r="G868" s="11"/>
     </row>
-    <row r="869" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="3">
         <v>868</v>
       </c>
@@ -9455,7 +9224,7 @@
       <c r="E869" s="5"/>
       <c r="F869" s="5"/>
     </row>
-    <row r="870" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="8">
         <v>869</v>
       </c>
@@ -9466,7 +9235,7 @@
       <c r="F870" s="11"/>
       <c r="G870" s="11"/>
     </row>
-    <row r="871" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="3">
         <v>870</v>
       </c>
@@ -9476,7 +9245,7 @@
       <c r="E871" s="5"/>
       <c r="F871" s="5"/>
     </row>
-    <row r="872" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="8">
         <v>871</v>
       </c>
@@ -9487,7 +9256,7 @@
       <c r="F872" s="11"/>
       <c r="G872" s="11"/>
     </row>
-    <row r="873" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="3">
         <v>872</v>
       </c>
@@ -9497,7 +9266,7 @@
       <c r="E873" s="5"/>
       <c r="F873" s="5"/>
     </row>
-    <row r="874" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="8">
         <v>873</v>
       </c>
@@ -9508,7 +9277,7 @@
       <c r="F874" s="11"/>
       <c r="G874" s="11"/>
     </row>
-    <row r="875" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="3">
         <v>874</v>
       </c>
@@ -9518,7 +9287,7 @@
       <c r="E875" s="5"/>
       <c r="F875" s="5"/>
     </row>
-    <row r="876" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="8">
         <v>875</v>
       </c>
@@ -9529,7 +9298,7 @@
       <c r="F876" s="11"/>
       <c r="G876" s="11"/>
     </row>
-    <row r="877" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="3">
         <v>876</v>
       </c>
@@ -9539,7 +9308,7 @@
       <c r="E877" s="5"/>
       <c r="F877" s="5"/>
     </row>
-    <row r="878" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="8">
         <v>877</v>
       </c>
@@ -9550,7 +9319,7 @@
       <c r="F878" s="11"/>
       <c r="G878" s="11"/>
     </row>
-    <row r="879" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="3">
         <v>878</v>
       </c>
@@ -9560,7 +9329,7 @@
       <c r="E879" s="5"/>
       <c r="F879" s="5"/>
     </row>
-    <row r="880" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="8">
         <v>879</v>
       </c>
@@ -9571,7 +9340,7 @@
       <c r="F880" s="11"/>
       <c r="G880" s="11"/>
     </row>
-    <row r="881" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="3">
         <v>880</v>
       </c>
@@ -9581,7 +9350,7 @@
       <c r="E881" s="5"/>
       <c r="F881" s="5"/>
     </row>
-    <row r="882" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="8">
         <v>881</v>
       </c>
@@ -9592,7 +9361,7 @@
       <c r="F882" s="11"/>
       <c r="G882" s="11"/>
     </row>
-    <row r="883" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="3">
         <v>882</v>
       </c>
@@ -9602,7 +9371,7 @@
       <c r="E883" s="5"/>
       <c r="F883" s="5"/>
     </row>
-    <row r="884" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="8">
         <v>883</v>
       </c>
@@ -9613,7 +9382,7 @@
       <c r="F884" s="11"/>
       <c r="G884" s="11"/>
     </row>
-    <row r="885" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="3">
         <v>884</v>
       </c>
@@ -9623,7 +9392,7 @@
       <c r="E885" s="5"/>
       <c r="F885" s="5"/>
     </row>
-    <row r="886" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="8">
         <v>885</v>
       </c>
@@ -9634,7 +9403,7 @@
       <c r="F886" s="11"/>
       <c r="G886" s="11"/>
     </row>
-    <row r="887" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="3">
         <v>886</v>
       </c>
@@ -9644,7 +9413,7 @@
       <c r="E887" s="5"/>
       <c r="F887" s="5"/>
     </row>
-    <row r="888" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="8">
         <v>887</v>
       </c>
@@ -9655,7 +9424,7 @@
       <c r="F888" s="11"/>
       <c r="G888" s="11"/>
     </row>
-    <row r="889" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="3">
         <v>888</v>
       </c>
@@ -9665,7 +9434,7 @@
       <c r="E889" s="5"/>
       <c r="F889" s="5"/>
     </row>
-    <row r="890" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="8">
         <v>889</v>
       </c>
@@ -9676,7 +9445,7 @@
       <c r="F890" s="11"/>
       <c r="G890" s="11"/>
     </row>
-    <row r="891" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="3">
         <v>890</v>
       </c>
@@ -9685,7 +9454,7 @@
       <c r="E891" s="5"/>
       <c r="F891" s="5"/>
     </row>
-    <row r="892" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="8">
         <v>891</v>
       </c>
@@ -9696,7 +9465,7 @@
       <c r="F892" s="11"/>
       <c r="G892" s="11"/>
     </row>
-    <row r="893" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="3">
         <v>892</v>
       </c>
@@ -9705,7 +9474,7 @@
       <c r="E893" s="5"/>
       <c r="F893" s="5"/>
     </row>
-    <row r="894" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="8">
         <v>893</v>
       </c>
@@ -9716,7 +9485,7 @@
       <c r="F894" s="11"/>
       <c r="G894" s="11"/>
     </row>
-    <row r="895" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="3">
         <v>894</v>
       </c>
@@ -9725,7 +9494,7 @@
       <c r="E895" s="5"/>
       <c r="F895" s="5"/>
     </row>
-    <row r="896" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="8">
         <v>895</v>
       </c>
@@ -9736,7 +9505,7 @@
       <c r="F896" s="11"/>
       <c r="G896" s="11"/>
     </row>
-    <row r="897" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="3">
         <v>896</v>
       </c>
@@ -9745,7 +9514,7 @@
       <c r="E897" s="5"/>
       <c r="F897" s="5"/>
     </row>
-    <row r="898" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="8">
         <v>897</v>
       </c>
@@ -9756,7 +9525,7 @@
       <c r="F898" s="11"/>
       <c r="G898" s="11"/>
     </row>
-    <row r="899" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="3">
         <v>898</v>
       </c>
@@ -9765,7 +9534,7 @@
       <c r="E899" s="5"/>
       <c r="F899" s="5"/>
     </row>
-    <row r="900" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="8">
         <v>899</v>
       </c>
@@ -9776,7 +9545,7 @@
       <c r="F900" s="11"/>
       <c r="G900" s="11"/>
     </row>
-    <row r="901" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="3">
         <v>900</v>
       </c>
@@ -9785,7 +9554,7 @@
       <c r="E901" s="5"/>
       <c r="F901" s="5"/>
     </row>
-    <row r="902" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="8">
         <v>901</v>
       </c>
@@ -9796,7 +9565,7 @@
       <c r="F902" s="11"/>
       <c r="G902" s="11"/>
     </row>
-    <row r="903" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="3">
         <v>902</v>
       </c>
@@ -9805,7 +9574,7 @@
       <c r="E903" s="5"/>
       <c r="F903" s="5"/>
     </row>
-    <row r="904" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="8">
         <v>903</v>
       </c>
@@ -9816,7 +9585,7 @@
       <c r="F904" s="11"/>
       <c r="G904" s="11"/>
     </row>
-    <row r="905" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="3">
         <v>904</v>
       </c>
@@ -9825,7 +9594,7 @@
       <c r="E905" s="5"/>
       <c r="F905" s="5"/>
     </row>
-    <row r="906" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="8">
         <v>905</v>
       </c>
@@ -9836,7 +9605,7 @@
       <c r="F906" s="11"/>
       <c r="G906" s="11"/>
     </row>
-    <row r="907" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="3">
         <v>906</v>
       </c>
@@ -9845,7 +9614,7 @@
       <c r="E907" s="5"/>
       <c r="F907" s="5"/>
     </row>
-    <row r="908" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="8">
         <v>907</v>
       </c>
@@ -9856,7 +9625,7 @@
       <c r="F908" s="11"/>
       <c r="G908" s="11"/>
     </row>
-    <row r="909" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="3">
         <v>908</v>
       </c>
@@ -9865,7 +9634,7 @@
       <c r="E909" s="5"/>
       <c r="F909" s="5"/>
     </row>
-    <row r="910" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="8">
         <v>909</v>
       </c>
@@ -9876,7 +9645,7 @@
       <c r="F910" s="11"/>
       <c r="G910" s="11"/>
     </row>
-    <row r="911" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="3">
         <v>910</v>
       </c>
@@ -9885,7 +9654,7 @@
       <c r="E911" s="5"/>
       <c r="F911" s="5"/>
     </row>
-    <row r="912" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="8">
         <v>911</v>
       </c>
@@ -9896,7 +9665,7 @@
       <c r="F912" s="11"/>
       <c r="G912" s="11"/>
     </row>
-    <row r="913" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="3">
         <v>912</v>
       </c>
@@ -9905,7 +9674,7 @@
       <c r="E913" s="5"/>
       <c r="F913" s="5"/>
     </row>
-    <row r="914" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="8">
         <v>913</v>
       </c>
@@ -9916,7 +9685,7 @@
       <c r="F914" s="11"/>
       <c r="G914" s="11"/>
     </row>
-    <row r="915" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="3">
         <v>914</v>
       </c>
@@ -9925,7 +9694,7 @@
       <c r="E915" s="5"/>
       <c r="F915" s="5"/>
     </row>
-    <row r="916" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="8">
         <v>915</v>
       </c>
@@ -9936,7 +9705,7 @@
       <c r="F916" s="11"/>
       <c r="G916" s="11"/>
     </row>
-    <row r="917" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="3">
         <v>916</v>
       </c>
@@ -9945,7 +9714,7 @@
       <c r="E917" s="5"/>
       <c r="F917" s="5"/>
     </row>
-    <row r="918" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="8">
         <v>917</v>
       </c>
@@ -9956,7 +9725,7 @@
       <c r="F918" s="11"/>
       <c r="G918" s="11"/>
     </row>
-    <row r="919" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="3">
         <v>918</v>
       </c>
@@ -9965,7 +9734,7 @@
       <c r="E919" s="5"/>
       <c r="F919" s="5"/>
     </row>
-    <row r="920" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="8">
         <v>919</v>
       </c>
@@ -9976,7 +9745,7 @@
       <c r="F920" s="11"/>
       <c r="G920" s="11"/>
     </row>
-    <row r="921" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="3">
         <v>920</v>
       </c>
@@ -9985,7 +9754,7 @@
       <c r="E921" s="5"/>
       <c r="F921" s="5"/>
     </row>
-    <row r="922" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="8">
         <v>921</v>
       </c>
@@ -9996,7 +9765,7 @@
       <c r="F922" s="11"/>
       <c r="G922" s="11"/>
     </row>
-    <row r="923" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="3">
         <v>922</v>
       </c>
@@ -10005,7 +9774,7 @@
       <c r="E923" s="5"/>
       <c r="F923" s="5"/>
     </row>
-    <row r="924" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="8">
         <v>923</v>
       </c>
@@ -10016,7 +9785,7 @@
       <c r="F924" s="11"/>
       <c r="G924" s="11"/>
     </row>
-    <row r="925" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="3">
         <v>924</v>
       </c>
@@ -10025,7 +9794,7 @@
       <c r="E925" s="5"/>
       <c r="F925" s="5"/>
     </row>
-    <row r="926" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="8">
         <v>925</v>
       </c>
@@ -10036,7 +9805,7 @@
       <c r="F926" s="11"/>
       <c r="G926" s="11"/>
     </row>
-    <row r="927" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="3">
         <v>926</v>
       </c>
@@ -10045,7 +9814,7 @@
       <c r="E927" s="5"/>
       <c r="F927" s="5"/>
     </row>
-    <row r="928" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="8">
         <v>927</v>
       </c>
@@ -10056,7 +9825,7 @@
       <c r="F928" s="11"/>
       <c r="G928" s="11"/>
     </row>
-    <row r="929" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="3">
         <v>928</v>
       </c>
@@ -10065,7 +9834,7 @@
       <c r="E929" s="5"/>
       <c r="F929" s="5"/>
     </row>
-    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="8">
         <v>929</v>
       </c>
@@ -10076,7 +9845,7 @@
       <c r="F930" s="11"/>
       <c r="G930" s="11"/>
     </row>
-    <row r="931" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="3">
         <v>930</v>
       </c>
@@ -10085,7 +9854,7 @@
       <c r="E931" s="5"/>
       <c r="F931" s="5"/>
     </row>
-    <row r="932" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="8">
         <v>931</v>
       </c>
@@ -10096,7 +9865,7 @@
       <c r="F932" s="11"/>
       <c r="G932" s="11"/>
     </row>
-    <row r="933" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="3">
         <v>932</v>
       </c>
@@ -10105,7 +9874,7 @@
       <c r="E933" s="5"/>
       <c r="F933" s="5"/>
     </row>
-    <row r="934" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="8">
         <v>933</v>
       </c>
@@ -10116,7 +9885,7 @@
       <c r="F934" s="11"/>
       <c r="G934" s="11"/>
     </row>
-    <row r="935" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="3">
         <v>934</v>
       </c>
@@ -10125,7 +9894,7 @@
       <c r="E935" s="5"/>
       <c r="F935" s="5"/>
     </row>
-    <row r="936" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="8">
         <v>935</v>
       </c>
@@ -10136,7 +9905,7 @@
       <c r="F936" s="11"/>
       <c r="G936" s="11"/>
     </row>
-    <row r="937" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="3">
         <v>936</v>
       </c>
@@ -10145,7 +9914,7 @@
       <c r="E937" s="5"/>
       <c r="F937" s="5"/>
     </row>
-    <row r="938" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="8">
         <v>937</v>
       </c>
@@ -10156,7 +9925,7 @@
       <c r="F938" s="11"/>
       <c r="G938" s="11"/>
     </row>
-    <row r="939" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="3">
         <v>938</v>
       </c>
@@ -10165,7 +9934,7 @@
       <c r="E939" s="5"/>
       <c r="F939" s="5"/>
     </row>
-    <row r="940" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="8">
         <v>939</v>
       </c>
@@ -10176,7 +9945,7 @@
       <c r="F940" s="11"/>
       <c r="G940" s="11"/>
     </row>
-    <row r="941" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="3">
         <v>940</v>
       </c>
@@ -10185,7 +9954,7 @@
       <c r="E941" s="5"/>
       <c r="F941" s="5"/>
     </row>
-    <row r="942" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="8">
         <v>941</v>
       </c>
@@ -10196,7 +9965,7 @@
       <c r="F942" s="11"/>
       <c r="G942" s="11"/>
     </row>
-    <row r="943" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="3">
         <v>942</v>
       </c>
@@ -10205,7 +9974,7 @@
       <c r="E943" s="5"/>
       <c r="F943" s="5"/>
     </row>
-    <row r="944" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="8">
         <v>943</v>
       </c>
@@ -10216,7 +9985,7 @@
       <c r="F944" s="11"/>
       <c r="G944" s="11"/>
     </row>
-    <row r="945" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="3">
         <v>944</v>
       </c>
@@ -10225,7 +9994,7 @@
       <c r="E945" s="5"/>
       <c r="F945" s="5"/>
     </row>
-    <row r="946" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="8">
         <v>945</v>
       </c>
@@ -10236,7 +10005,7 @@
       <c r="F946" s="11"/>
       <c r="G946" s="11"/>
     </row>
-    <row r="947" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="3">
         <v>946</v>
       </c>
@@ -10245,7 +10014,7 @@
       <c r="E947" s="5"/>
       <c r="F947" s="5"/>
     </row>
-    <row r="948" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="8">
         <v>947</v>
       </c>
@@ -10256,7 +10025,7 @@
       <c r="F948" s="11"/>
       <c r="G948" s="11"/>
     </row>
-    <row r="949" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="3">
         <v>948</v>
       </c>
@@ -10265,7 +10034,7 @@
       <c r="E949" s="5"/>
       <c r="F949" s="5"/>
     </row>
-    <row r="950" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="8">
         <v>949</v>
       </c>
@@ -10276,7 +10045,7 @@
       <c r="F950" s="11"/>
       <c r="G950" s="11"/>
     </row>
-    <row r="951" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="3">
         <v>950</v>
       </c>
@@ -10285,7 +10054,7 @@
       <c r="E951" s="5"/>
       <c r="F951" s="5"/>
     </row>
-    <row r="952" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="8">
         <v>951</v>
       </c>
@@ -10296,7 +10065,7 @@
       <c r="F952" s="11"/>
       <c r="G952" s="11"/>
     </row>
-    <row r="953" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="3">
         <v>952</v>
       </c>
@@ -10305,7 +10074,7 @@
       <c r="E953" s="5"/>
       <c r="F953" s="5"/>
     </row>
-    <row r="954" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="8">
         <v>953</v>
       </c>
@@ -10316,7 +10085,7 @@
       <c r="F954" s="11"/>
       <c r="G954" s="11"/>
     </row>
-    <row r="955" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="3">
         <v>954</v>
       </c>
@@ -10325,7 +10094,7 @@
       <c r="E955" s="5"/>
       <c r="F955" s="5"/>
     </row>
-    <row r="956" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="8">
         <v>955</v>
       </c>
@@ -10336,7 +10105,7 @@
       <c r="F956" s="11"/>
       <c r="G956" s="11"/>
     </row>
-    <row r="957" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="3">
         <v>956</v>
       </c>
@@ -10345,7 +10114,7 @@
       <c r="E957" s="5"/>
       <c r="F957" s="5"/>
     </row>
-    <row r="958" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="8">
         <v>957</v>
       </c>
@@ -10356,7 +10125,7 @@
       <c r="F958" s="11"/>
       <c r="G958" s="11"/>
     </row>
-    <row r="959" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="3">
         <v>958</v>
       </c>
@@ -10365,7 +10134,7 @@
       <c r="E959" s="5"/>
       <c r="F959" s="5"/>
     </row>
-    <row r="960" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="8">
         <v>959</v>
       </c>
@@ -10376,7 +10145,7 @@
       <c r="F960" s="11"/>
       <c r="G960" s="11"/>
     </row>
-    <row r="961" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="3">
         <v>960</v>
       </c>
@@ -10385,7 +10154,7 @@
       <c r="E961" s="5"/>
       <c r="F961" s="5"/>
     </row>
-    <row r="962" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="8">
         <v>961</v>
       </c>
@@ -10396,7 +10165,7 @@
       <c r="F962" s="11"/>
       <c r="G962" s="11"/>
     </row>
-    <row r="963" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="3">
         <v>962</v>
       </c>
@@ -10405,7 +10174,7 @@
       <c r="E963" s="5"/>
       <c r="F963" s="5"/>
     </row>
-    <row r="964" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="8">
         <v>963</v>
       </c>
@@ -10416,7 +10185,7 @@
       <c r="F964" s="11"/>
       <c r="G964" s="11"/>
     </row>
-    <row r="965" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="3">
         <v>964</v>
       </c>
@@ -10425,7 +10194,7 @@
       <c r="E965" s="5"/>
       <c r="F965" s="5"/>
     </row>
-    <row r="966" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="8">
         <v>965</v>
       </c>
@@ -10436,7 +10205,7 @@
       <c r="F966" s="11"/>
       <c r="G966" s="11"/>
     </row>
-    <row r="967" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="3">
         <v>966</v>
       </c>
@@ -10445,7 +10214,7 @@
       <c r="E967" s="5"/>
       <c r="F967" s="5"/>
     </row>
-    <row r="968" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="8">
         <v>967</v>
       </c>
@@ -10456,7 +10225,7 @@
       <c r="F968" s="11"/>
       <c r="G968" s="11"/>
     </row>
-    <row r="969" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="3">
         <v>968</v>
       </c>
@@ -10465,7 +10234,7 @@
       <c r="E969" s="5"/>
       <c r="F969" s="5"/>
     </row>
-    <row r="970" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="8">
         <v>969</v>
       </c>
@@ -10476,7 +10245,7 @@
       <c r="F970" s="11"/>
       <c r="G970" s="11"/>
     </row>
-    <row r="971" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="3">
         <v>970</v>
       </c>
@@ -10485,7 +10254,7 @@
       <c r="E971" s="5"/>
       <c r="F971" s="5"/>
     </row>
-    <row r="972" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="8">
         <v>971</v>
       </c>
@@ -10496,7 +10265,7 @@
       <c r="F972" s="11"/>
       <c r="G972" s="11"/>
     </row>
-    <row r="973" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="3">
         <v>972</v>
       </c>
@@ -10505,7 +10274,7 @@
       <c r="E973" s="5"/>
       <c r="F973" s="5"/>
     </row>
-    <row r="974" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="8">
         <v>973</v>
       </c>
@@ -10516,7 +10285,7 @@
       <c r="F974" s="11"/>
       <c r="G974" s="11"/>
     </row>
-    <row r="975" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="3">
         <v>974</v>
       </c>
@@ -10525,7 +10294,7 @@
       <c r="E975" s="5"/>
       <c r="F975" s="5"/>
     </row>
-    <row r="976" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="8">
         <v>975</v>
       </c>
@@ -10536,7 +10305,7 @@
       <c r="F976" s="11"/>
       <c r="G976" s="11"/>
     </row>
-    <row r="977" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="3">
         <v>976</v>
       </c>
@@ -10545,7 +10314,7 @@
       <c r="E977" s="5"/>
       <c r="F977" s="5"/>
     </row>
-    <row r="978" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="8">
         <v>977</v>
       </c>
@@ -10556,7 +10325,7 @@
       <c r="F978" s="11"/>
       <c r="G978" s="11"/>
     </row>
-    <row r="979" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="3">
         <v>978</v>
       </c>
@@ -10565,7 +10334,7 @@
       <c r="E979" s="5"/>
       <c r="F979" s="5"/>
     </row>
-    <row r="980" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="8">
         <v>979</v>
       </c>
@@ -10576,7 +10345,7 @@
       <c r="F980" s="11"/>
       <c r="G980" s="11"/>
     </row>
-    <row r="981" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="3">
         <v>980</v>
       </c>
@@ -10585,7 +10354,7 @@
       <c r="E981" s="5"/>
       <c r="F981" s="5"/>
     </row>
-    <row r="982" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="8">
         <v>981</v>
       </c>
@@ -10596,7 +10365,7 @@
       <c r="F982" s="11"/>
       <c r="G982" s="11"/>
     </row>
-    <row r="983" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="3">
         <v>982</v>
       </c>
@@ -10605,7 +10374,7 @@
       <c r="E983" s="5"/>
       <c r="F983" s="5"/>
     </row>
-    <row r="984" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="8">
         <v>983</v>
       </c>
@@ -10616,7 +10385,7 @@
       <c r="F984" s="11"/>
       <c r="G984" s="11"/>
     </row>
-    <row r="985" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="3">
         <v>984</v>
       </c>
@@ -10625,7 +10394,7 @@
       <c r="E985" s="5"/>
       <c r="F985" s="5"/>
     </row>
-    <row r="986" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="8">
         <v>985</v>
       </c>
@@ -10636,7 +10405,7 @@
       <c r="F986" s="11"/>
       <c r="G986" s="11"/>
     </row>
-    <row r="987" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="3">
         <v>986</v>
       </c>
@@ -10645,7 +10414,7 @@
       <c r="E987" s="5"/>
       <c r="F987" s="5"/>
     </row>
-    <row r="988" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="8">
         <v>987</v>
       </c>
@@ -10656,7 +10425,7 @@
       <c r="F988" s="11"/>
       <c r="G988" s="11"/>
     </row>
-    <row r="989" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="3">
         <v>988</v>
       </c>
@@ -10665,7 +10434,7 @@
       <c r="E989" s="5"/>
       <c r="F989" s="5"/>
     </row>
-    <row r="990" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="8">
         <v>989</v>
       </c>
@@ -10676,7 +10445,7 @@
       <c r="F990" s="11"/>
       <c r="G990" s="11"/>
     </row>
-    <row r="991" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="3">
         <v>990</v>
       </c>
@@ -10685,7 +10454,7 @@
       <c r="E991" s="5"/>
       <c r="F991" s="5"/>
     </row>
-    <row r="992" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="8">
         <v>991</v>
       </c>
@@ -10696,7 +10465,7 @@
       <c r="F992" s="11"/>
       <c r="G992" s="11"/>
     </row>
-    <row r="993" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="3">
         <v>992</v>
       </c>
@@ -10705,7 +10474,7 @@
       <c r="E993" s="5"/>
       <c r="F993" s="5"/>
     </row>
-    <row r="994" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="8">
         <v>993</v>
       </c>
@@ -10716,7 +10485,7 @@
       <c r="F994" s="11"/>
       <c r="G994" s="11"/>
     </row>
-    <row r="995" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="3">
         <v>994</v>
       </c>
@@ -10725,7 +10494,7 @@
       <c r="E995" s="5"/>
       <c r="F995" s="5"/>
     </row>
-    <row r="996" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="8">
         <v>995</v>
       </c>
@@ -10736,7 +10505,7 @@
       <c r="F996" s="11"/>
       <c r="G996" s="11"/>
     </row>
-    <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="3">
         <v>996</v>
       </c>
@@ -10745,7 +10514,7 @@
       <c r="E997" s="5"/>
       <c r="F997" s="5"/>
     </row>
-    <row r="998" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="8">
         <v>997</v>
       </c>
@@ -10756,7 +10525,7 @@
       <c r="F998" s="11"/>
       <c r="G998" s="11"/>
     </row>
-    <row r="999" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="3">
         <v>998</v>
       </c>
@@ -10765,7 +10534,7 @@
       <c r="E999" s="5"/>
       <c r="F999" s="5"/>
     </row>
-    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="8">
         <v>999</v>
       </c>
@@ -10776,7 +10545,7 @@
       <c r="F1000" s="11"/>
       <c r="G1000" s="11"/>
     </row>
-    <row r="1001" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="3">
         <v>1000</v>
       </c>
@@ -10785,7 +10554,7 @@
       <c r="E1001" s="5"/>
       <c r="F1001" s="5"/>
     </row>
-    <row r="1002" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="8">
         <v>1001</v>
       </c>
@@ -10796,7 +10565,7 @@
       <c r="F1002" s="11"/>
       <c r="G1002" s="11"/>
     </row>
-    <row r="1003" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="3">
         <v>1002</v>
       </c>
@@ -10805,7 +10574,7 @@
       <c r="E1003" s="5"/>
       <c r="F1003" s="5"/>
     </row>
-    <row r="1004" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="8">
         <v>1003</v>
       </c>
@@ -10816,7 +10585,7 @@
       <c r="F1004" s="11"/>
       <c r="G1004" s="11"/>
     </row>
-    <row r="1005" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="3">
         <v>1004</v>
       </c>
@@ -10825,7 +10594,7 @@
       <c r="E1005" s="5"/>
       <c r="F1005" s="5"/>
     </row>
-    <row r="1006" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="8">
         <v>1005</v>
       </c>
@@ -10836,7 +10605,7 @@
       <c r="F1006" s="11"/>
       <c r="G1006" s="11"/>
     </row>
-    <row r="1007" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1007" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1007" s="3">
         <v>1006</v>
       </c>
@@ -10845,7 +10614,7 @@
       <c r="E1007" s="5"/>
       <c r="F1007" s="5"/>
     </row>
-    <row r="1008" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1008" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1008" s="8">
         <v>1007</v>
       </c>
@@ -10856,7 +10625,7 @@
       <c r="F1008" s="11"/>
       <c r="G1008" s="11"/>
     </row>
-    <row r="1009" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1009" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1009" s="3">
         <v>1008</v>
       </c>
@@ -10865,7 +10634,7 @@
       <c r="E1009" s="5"/>
       <c r="F1009" s="5"/>
     </row>
-    <row r="1010" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1010" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1010" s="8">
         <v>1009</v>
       </c>
@@ -10876,7 +10645,7 @@
       <c r="F1010" s="11"/>
       <c r="G1010" s="11"/>
     </row>
-    <row r="1011" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1011" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1011" s="3">
         <v>1010</v>
       </c>
@@ -10885,7 +10654,7 @@
       <c r="E1011" s="5"/>
       <c r="F1011" s="5"/>
     </row>
-    <row r="1012" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1012" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1012" s="8">
         <v>1011</v>
       </c>
@@ -10896,7 +10665,7 @@
       <c r="F1012" s="11"/>
       <c r="G1012" s="11"/>
     </row>
-    <row r="1013" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1013" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1013" s="3">
         <v>1012</v>
       </c>
@@ -10905,7 +10674,7 @@
       <c r="E1013" s="5"/>
       <c r="F1013" s="5"/>
     </row>
-    <row r="1014" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1014" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1014" s="8">
         <v>1013</v>
       </c>
@@ -10916,7 +10685,7 @@
       <c r="F1014" s="11"/>
       <c r="G1014" s="11"/>
     </row>
-    <row r="1015" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1015" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1015" s="3">
         <v>1014</v>
       </c>
@@ -10925,7 +10694,7 @@
       <c r="E1015" s="5"/>
       <c r="F1015" s="5"/>
     </row>
-    <row r="1016" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1016" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1016" s="8">
         <v>1015</v>
       </c>
@@ -10936,7 +10705,7 @@
       <c r="F1016" s="11"/>
       <c r="G1016" s="11"/>
     </row>
-    <row r="1017" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1017" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1017" s="3">
         <v>1016</v>
       </c>
@@ -10945,7 +10714,7 @@
       <c r="E1017" s="5"/>
       <c r="F1017" s="5"/>
     </row>
-    <row r="1018" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1018" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1018" s="8">
         <v>1017</v>
       </c>
@@ -10956,7 +10725,7 @@
       <c r="F1018" s="11"/>
       <c r="G1018" s="11"/>
     </row>
-    <row r="1019" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1019" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1019" s="3">
         <v>1018</v>
       </c>
@@ -10965,7 +10734,7 @@
       <c r="E1019" s="5"/>
       <c r="F1019" s="5"/>
     </row>
-    <row r="1020" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1020" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1020" s="8">
         <v>1019</v>
       </c>
@@ -10976,7 +10745,7 @@
       <c r="F1020" s="11"/>
       <c r="G1020" s="11"/>
     </row>
-    <row r="1021" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1021" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1021" s="3">
         <v>1020</v>
       </c>
@@ -10985,7 +10754,7 @@
       <c r="E1021" s="5"/>
       <c r="F1021" s="5"/>
     </row>
-    <row r="1022" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1022" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1022" s="8">
         <v>1021</v>
       </c>
@@ -10996,7 +10765,7 @@
       <c r="F1022" s="11"/>
       <c r="G1022" s="11"/>
     </row>
-    <row r="1023" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1023" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1023" s="3">
         <v>1022</v>
       </c>
@@ -11005,7 +10774,7 @@
       <c r="E1023" s="5"/>
       <c r="F1023" s="5"/>
     </row>
-    <row r="1024" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1024" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1024" s="8">
         <v>1023</v>
       </c>
@@ -11016,7 +10785,7 @@
       <c r="F1024" s="11"/>
       <c r="G1024" s="11"/>
     </row>
-    <row r="1025" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1025" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1025" s="3">
         <v>1024</v>
       </c>
@@ -11025,7 +10794,7 @@
       <c r="E1025" s="5"/>
       <c r="F1025" s="5"/>
     </row>
-    <row r="1026" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1026" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1026" s="8">
         <v>1025</v>
       </c>
@@ -11036,7 +10805,7 @@
       <c r="F1026" s="11"/>
       <c r="G1026" s="11"/>
     </row>
-    <row r="1027" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1027" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1027" s="3">
         <v>1026</v>
       </c>
@@ -11045,7 +10814,7 @@
       <c r="E1027" s="5"/>
       <c r="F1027" s="5"/>
     </row>
-    <row r="1028" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1028" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1028" s="8">
         <v>1027</v>
       </c>
@@ -11056,7 +10825,7 @@
       <c r="F1028" s="11"/>
       <c r="G1028" s="11"/>
     </row>
-    <row r="1029" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1029" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1029" s="3">
         <v>1028</v>
       </c>
@@ -11065,7 +10834,7 @@
       <c r="E1029" s="5"/>
       <c r="F1029" s="5"/>
     </row>
-    <row r="1030" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1030" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1030" s="8">
         <v>1029</v>
       </c>
@@ -11076,7 +10845,7 @@
       <c r="F1030" s="11"/>
       <c r="G1030" s="11"/>
     </row>
-    <row r="1031" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1031" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1031" s="3">
         <v>1030</v>
       </c>
@@ -11085,7 +10854,7 @@
       <c r="E1031" s="5"/>
       <c r="F1031" s="5"/>
     </row>
-    <row r="1032" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1032" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1032" s="8">
         <v>1031</v>
       </c>
@@ -11096,7 +10865,7 @@
       <c r="F1032" s="11"/>
       <c r="G1032" s="11"/>
     </row>
-    <row r="1033" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1033" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1033" s="3">
         <v>1032</v>
       </c>
@@ -11105,7 +10874,7 @@
       <c r="E1033" s="5"/>
       <c r="F1033" s="5"/>
     </row>
-    <row r="1034" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1034" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1034" s="8">
         <v>1033</v>
       </c>
@@ -11116,7 +10885,7 @@
       <c r="F1034" s="11"/>
       <c r="G1034" s="11"/>
     </row>
-    <row r="1035" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1035" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="3">
         <v>1034</v>
       </c>
@@ -11125,7 +10894,7 @@
       <c r="E1035" s="5"/>
       <c r="F1035" s="5"/>
     </row>
-    <row r="1036" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1036" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="8">
         <v>1035</v>
       </c>
@@ -11136,7 +10905,7 @@
       <c r="F1036" s="11"/>
       <c r="G1036" s="11"/>
     </row>
-    <row r="1037" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1037" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1037" s="3">
         <v>1036</v>
       </c>
@@ -11145,7 +10914,7 @@
       <c r="E1037" s="5"/>
       <c r="F1037" s="5"/>
     </row>
-    <row r="1038" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1038" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1038" s="8">
         <v>1037</v>
       </c>
@@ -11156,7 +10925,7 @@
       <c r="F1038" s="11"/>
       <c r="G1038" s="11"/>
     </row>
-    <row r="1039" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1039" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1039" s="3">
         <v>1038</v>
       </c>
@@ -11165,7 +10934,7 @@
       <c r="E1039" s="5"/>
       <c r="F1039" s="5"/>
     </row>
-    <row r="1040" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1040" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1040" s="8">
         <v>1039</v>
       </c>
@@ -11176,7 +10945,7 @@
       <c r="F1040" s="11"/>
       <c r="G1040" s="11"/>
     </row>
-    <row r="1041" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1041" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1041" s="3">
         <v>1040</v>
       </c>
@@ -11185,7 +10954,7 @@
       <c r="E1041" s="5"/>
       <c r="F1041" s="5"/>
     </row>
-    <row r="1042" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1042" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1042" s="8">
         <v>1041</v>
       </c>
@@ -11196,7 +10965,7 @@
       <c r="F1042" s="11"/>
       <c r="G1042" s="11"/>
     </row>
-    <row r="1043" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1043" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1043" s="3">
         <v>1042</v>
       </c>
@@ -11205,7 +10974,7 @@
       <c r="E1043" s="5"/>
       <c r="F1043" s="5"/>
     </row>
-    <row r="1044" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1044" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1044" s="8">
         <v>1043</v>
       </c>
@@ -11216,7 +10985,7 @@
       <c r="F1044" s="11"/>
       <c r="G1044" s="11"/>
     </row>
-    <row r="1045" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1045" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1045" s="3">
         <v>1044</v>
       </c>
@@ -11225,7 +10994,7 @@
       <c r="E1045" s="5"/>
       <c r="F1045" s="5"/>
     </row>
-    <row r="1046" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1046" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1046" s="8">
         <v>1045</v>
       </c>
@@ -11236,7 +11005,7 @@
       <c r="F1046" s="11"/>
       <c r="G1046" s="11"/>
     </row>
-    <row r="1047" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1047" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1047" s="3">
         <v>1046</v>
       </c>
@@ -11245,7 +11014,7 @@
       <c r="E1047" s="5"/>
       <c r="F1047" s="5"/>
     </row>
-    <row r="1048" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1048" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1048" s="8">
         <v>1047</v>
       </c>
@@ -11256,7 +11025,7 @@
       <c r="F1048" s="11"/>
       <c r="G1048" s="11"/>
     </row>
-    <row r="1049" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1049" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1049" s="3">
         <v>1048</v>
       </c>
@@ -11265,7 +11034,7 @@
       <c r="E1049" s="5"/>
       <c r="F1049" s="5"/>
     </row>
-    <row r="1050" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1050" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1050" s="8">
         <v>1049</v>
       </c>
@@ -11276,7 +11045,7 @@
       <c r="F1050" s="11"/>
       <c r="G1050" s="11"/>
     </row>
-    <row r="1051" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1051" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1051" s="3">
         <v>1050</v>
       </c>
